--- a/VDP2/VDP2.xlsx
+++ b/VDP2/VDP2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="371">
   <si>
     <t>A</t>
   </si>
@@ -1322,7 +1322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1958,6 +1958,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2285,9 +2296,6 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2336,6 +2344,321 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2372,309 +2695,6 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2693,15 +2713,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2718,15 +2729,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2741,9 +2743,18 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2762,9 +2773,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2802,7 +2813,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2874,7 +2885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3054,7 +3065,7 @@
   <dimension ref="A1:EQ181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DK69" sqref="DK69"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3071,22 +3082,22 @@
     <row r="1" spans="1:147" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="56"/>
-      <c r="BJ1" s="120"/>
-      <c r="BK1" s="120"/>
-      <c r="BL1" s="120"/>
-      <c r="BM1" s="120"/>
-      <c r="BP1" s="119"/>
-      <c r="BQ1" s="119"/>
+      <c r="BJ1" s="119"/>
+      <c r="BK1" s="119"/>
+      <c r="BL1" s="119"/>
+      <c r="BM1" s="119"/>
+      <c r="BP1" s="118"/>
+      <c r="BQ1" s="118"/>
     </row>
     <row r="2" spans="1:147" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="D2" s="228" t="s">
+      <c r="B2" s="130"/>
+      <c r="D2" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="228"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="93" t="s">
         <v>219</v>
       </c>
@@ -3513,17 +3524,17 @@
       </c>
     </row>
     <row r="3" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="190" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="138" t="s">
         <v>153</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -3649,166 +3660,166 @@
       <c r="BC3" s="26"/>
       <c r="BD3" s="11"/>
       <c r="BE3" s="26"/>
-      <c r="BF3" s="244" t="s">
+      <c r="BF3" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="BG3" s="141" t="s">
+      <c r="BG3" s="125" t="s">
         <v>231</v>
       </c>
-      <c r="BH3" s="141" t="s">
+      <c r="BH3" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="BI3" s="141" t="s">
+      <c r="BI3" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="BJ3" s="141" t="s">
+      <c r="BJ3" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="BK3" s="141" t="s">
+      <c r="BK3" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="BL3" s="141" t="s">
+      <c r="BL3" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="BM3" s="141" t="s">
+      <c r="BM3" s="125" t="s">
         <v>237</v>
       </c>
-      <c r="BN3" s="141" t="s">
+      <c r="BN3" s="125" t="s">
         <v>238</v>
       </c>
-      <c r="BO3" s="141" t="s">
+      <c r="BO3" s="125" t="s">
         <v>239</v>
       </c>
-      <c r="BP3" s="141" t="s">
+      <c r="BP3" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="BQ3" s="141" t="s">
+      <c r="BQ3" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="BR3" s="141" t="s">
+      <c r="BR3" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="BS3" s="141" t="s">
+      <c r="BS3" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="BT3" s="141" t="s">
+      <c r="BT3" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="BU3" s="141" t="s">
+      <c r="BU3" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="BV3" s="141" t="s">
+      <c r="BV3" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="BW3" s="141" t="s">
+      <c r="BW3" s="125" t="s">
         <v>247</v>
       </c>
-      <c r="BX3" s="141" t="s">
+      <c r="BX3" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="BY3" s="141" t="s">
+      <c r="BY3" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="BZ3" s="141" t="s">
+      <c r="BZ3" s="125" t="s">
         <v>250</v>
       </c>
-      <c r="CA3" s="141" t="s">
+      <c r="CA3" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="CB3" s="141" t="s">
+      <c r="CB3" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="CC3" s="143" t="s">
+      <c r="CC3" s="189" t="s">
         <v>253</v>
       </c>
-      <c r="CD3" s="244" t="s">
+      <c r="CD3" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="CE3" s="141" t="s">
+      <c r="CE3" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="CF3" s="141" t="s">
+      <c r="CF3" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="CG3" s="141" t="s">
+      <c r="CG3" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="CH3" s="141" t="s">
+      <c r="CH3" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="CI3" s="141" t="s">
+      <c r="CI3" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="CJ3" s="141" t="s">
+      <c r="CJ3" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="CK3" s="141" t="s">
+      <c r="CK3" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="CL3" s="141" t="s">
+      <c r="CL3" s="125" t="s">
         <v>261</v>
       </c>
-      <c r="CM3" s="141" t="s">
+      <c r="CM3" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="CN3" s="141" t="s">
+      <c r="CN3" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="CO3" s="141" t="s">
+      <c r="CO3" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="CP3" s="141" t="s">
+      <c r="CP3" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="CQ3" s="141" t="s">
+      <c r="CQ3" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="CR3" s="141" t="s">
+      <c r="CR3" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="CS3" s="141" t="s">
+      <c r="CS3" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="CT3" s="141" t="s">
+      <c r="CT3" s="125" t="s">
         <v>269</v>
       </c>
-      <c r="CU3" s="141" t="s">
+      <c r="CU3" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="CV3" s="141" t="s">
+      <c r="CV3" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="CW3" s="141" t="s">
+      <c r="CW3" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="CX3" s="141" t="s">
+      <c r="CX3" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="CY3" s="141" t="s">
+      <c r="CY3" s="125" t="s">
         <v>274</v>
       </c>
-      <c r="CZ3" s="141" t="s">
+      <c r="CZ3" s="125" t="s">
         <v>275</v>
       </c>
-      <c r="DA3" s="143" t="s">
+      <c r="DA3" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="DB3" s="225" t="s">
+      <c r="DB3" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="DC3" s="134" t="s">
+      <c r="DC3" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="DD3" s="134" t="s">
+      <c r="DD3" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="DE3" s="134" t="s">
+      <c r="DE3" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="DF3" s="134" t="s">
+      <c r="DF3" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="DG3" s="167" t="s">
+      <c r="DG3" s="217" t="s">
         <v>76</v>
       </c>
       <c r="DH3" s="247" t="s">
@@ -3817,34 +3828,34 @@
       <c r="DI3" s="250" t="s">
         <v>290</v>
       </c>
-      <c r="DJ3" s="241" t="s">
+      <c r="DJ3" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="DK3" s="170" t="s">
+      <c r="DK3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="DL3" s="235" t="s">
+      <c r="DL3" s="226" t="s">
         <v>359</v>
       </c>
-      <c r="DM3" s="238" t="s">
+      <c r="DM3" s="241" t="s">
         <v>360</v>
       </c>
       <c r="DN3" s="101"/>
       <c r="DO3" s="4"/>
       <c r="DP3" s="10"/>
-      <c r="DQ3" s="155" t="s">
+      <c r="DQ3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DR3" s="155" t="s">
+      <c r="DR3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DS3" s="155" t="s">
+      <c r="DS3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DT3" s="155" t="s">
+      <c r="DT3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DU3" s="159" t="s">
+      <c r="DU3" s="209" t="s">
         <v>3</v>
       </c>
       <c r="DV3" s="64"/>
@@ -3883,11 +3894,11 @@
       </c>
     </row>
     <row r="4" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="183"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="139"/>
       <c r="G4" s="25" t="s">
         <v>40</v>
       </c>
@@ -4017,74 +4028,74 @@
       <c r="BC4" s="21"/>
       <c r="BD4" s="22"/>
       <c r="BE4" s="21"/>
-      <c r="BF4" s="245"/>
-      <c r="BG4" s="142"/>
-      <c r="BH4" s="142"/>
-      <c r="BI4" s="142"/>
-      <c r="BJ4" s="142"/>
-      <c r="BK4" s="142"/>
-      <c r="BL4" s="142"/>
-      <c r="BM4" s="142"/>
-      <c r="BN4" s="142"/>
-      <c r="BO4" s="142"/>
-      <c r="BP4" s="142"/>
-      <c r="BQ4" s="142"/>
-      <c r="BR4" s="142"/>
-      <c r="BS4" s="142"/>
-      <c r="BT4" s="142"/>
-      <c r="BU4" s="142"/>
-      <c r="BV4" s="142"/>
-      <c r="BW4" s="142"/>
-      <c r="BX4" s="142"/>
-      <c r="BY4" s="142"/>
-      <c r="BZ4" s="142"/>
-      <c r="CA4" s="142"/>
-      <c r="CB4" s="142"/>
-      <c r="CC4" s="144"/>
-      <c r="CD4" s="245"/>
-      <c r="CE4" s="142"/>
-      <c r="CF4" s="142"/>
-      <c r="CG4" s="142"/>
-      <c r="CH4" s="142"/>
-      <c r="CI4" s="142"/>
-      <c r="CJ4" s="142"/>
-      <c r="CK4" s="142"/>
-      <c r="CL4" s="142"/>
-      <c r="CM4" s="142"/>
-      <c r="CN4" s="142"/>
-      <c r="CO4" s="142"/>
-      <c r="CP4" s="142"/>
-      <c r="CQ4" s="142"/>
-      <c r="CR4" s="142"/>
-      <c r="CS4" s="142"/>
-      <c r="CT4" s="142"/>
-      <c r="CU4" s="142"/>
-      <c r="CV4" s="142"/>
-      <c r="CW4" s="142"/>
-      <c r="CX4" s="142"/>
-      <c r="CY4" s="142"/>
-      <c r="CZ4" s="142"/>
-      <c r="DA4" s="144"/>
-      <c r="DB4" s="226"/>
-      <c r="DC4" s="135"/>
-      <c r="DD4" s="135"/>
-      <c r="DE4" s="135"/>
-      <c r="DF4" s="135"/>
-      <c r="DG4" s="168"/>
+      <c r="BF4" s="129"/>
+      <c r="BG4" s="126"/>
+      <c r="BH4" s="126"/>
+      <c r="BI4" s="126"/>
+      <c r="BJ4" s="126"/>
+      <c r="BK4" s="126"/>
+      <c r="BL4" s="126"/>
+      <c r="BM4" s="126"/>
+      <c r="BN4" s="126"/>
+      <c r="BO4" s="126"/>
+      <c r="BP4" s="126"/>
+      <c r="BQ4" s="126"/>
+      <c r="BR4" s="126"/>
+      <c r="BS4" s="126"/>
+      <c r="BT4" s="126"/>
+      <c r="BU4" s="126"/>
+      <c r="BV4" s="126"/>
+      <c r="BW4" s="126"/>
+      <c r="BX4" s="126"/>
+      <c r="BY4" s="126"/>
+      <c r="BZ4" s="126"/>
+      <c r="CA4" s="126"/>
+      <c r="CB4" s="126"/>
+      <c r="CC4" s="190"/>
+      <c r="CD4" s="129"/>
+      <c r="CE4" s="126"/>
+      <c r="CF4" s="126"/>
+      <c r="CG4" s="126"/>
+      <c r="CH4" s="126"/>
+      <c r="CI4" s="126"/>
+      <c r="CJ4" s="126"/>
+      <c r="CK4" s="126"/>
+      <c r="CL4" s="126"/>
+      <c r="CM4" s="126"/>
+      <c r="CN4" s="126"/>
+      <c r="CO4" s="126"/>
+      <c r="CP4" s="126"/>
+      <c r="CQ4" s="126"/>
+      <c r="CR4" s="126"/>
+      <c r="CS4" s="126"/>
+      <c r="CT4" s="126"/>
+      <c r="CU4" s="126"/>
+      <c r="CV4" s="126"/>
+      <c r="CW4" s="126"/>
+      <c r="CX4" s="126"/>
+      <c r="CY4" s="126"/>
+      <c r="CZ4" s="126"/>
+      <c r="DA4" s="190"/>
+      <c r="DB4" s="224"/>
+      <c r="DC4" s="239"/>
+      <c r="DD4" s="239"/>
+      <c r="DE4" s="239"/>
+      <c r="DF4" s="239"/>
+      <c r="DG4" s="218"/>
       <c r="DH4" s="248"/>
       <c r="DI4" s="251"/>
-      <c r="DJ4" s="242"/>
-      <c r="DK4" s="171"/>
-      <c r="DL4" s="236"/>
-      <c r="DM4" s="239"/>
+      <c r="DJ4" s="245"/>
+      <c r="DK4" s="221"/>
+      <c r="DL4" s="227"/>
+      <c r="DM4" s="242"/>
       <c r="DN4" s="102"/>
       <c r="DO4" s="97"/>
       <c r="DP4" s="7"/>
-      <c r="DQ4" s="156"/>
-      <c r="DR4" s="156"/>
-      <c r="DS4" s="156"/>
-      <c r="DT4" s="156"/>
-      <c r="DU4" s="160"/>
+      <c r="DQ4" s="207"/>
+      <c r="DR4" s="207"/>
+      <c r="DS4" s="207"/>
+      <c r="DT4" s="207"/>
+      <c r="DU4" s="210"/>
       <c r="DV4" s="46"/>
       <c r="DW4" s="58"/>
       <c r="DX4" s="58"/>
@@ -4113,11 +4124,11 @@
       </c>
     </row>
     <row r="5" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="183"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="139"/>
       <c r="G5" s="24" t="s">
         <v>80</v>
       </c>
@@ -4207,74 +4218,74 @@
       <c r="BC5" s="21"/>
       <c r="BD5" s="22"/>
       <c r="BE5" s="21"/>
-      <c r="BF5" s="245"/>
-      <c r="BG5" s="142"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="142"/>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="142"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="142"/>
-      <c r="BO5" s="142"/>
-      <c r="BP5" s="142"/>
-      <c r="BQ5" s="142"/>
-      <c r="BR5" s="142"/>
-      <c r="BS5" s="142"/>
-      <c r="BT5" s="142"/>
-      <c r="BU5" s="142"/>
-      <c r="BV5" s="142"/>
-      <c r="BW5" s="142"/>
-      <c r="BX5" s="142"/>
-      <c r="BY5" s="142"/>
-      <c r="BZ5" s="142"/>
-      <c r="CA5" s="142"/>
-      <c r="CB5" s="142"/>
-      <c r="CC5" s="144"/>
-      <c r="CD5" s="245"/>
-      <c r="CE5" s="142"/>
-      <c r="CF5" s="142"/>
-      <c r="CG5" s="142"/>
-      <c r="CH5" s="142"/>
-      <c r="CI5" s="142"/>
-      <c r="CJ5" s="142"/>
-      <c r="CK5" s="142"/>
-      <c r="CL5" s="142"/>
-      <c r="CM5" s="142"/>
-      <c r="CN5" s="142"/>
-      <c r="CO5" s="142"/>
-      <c r="CP5" s="142"/>
-      <c r="CQ5" s="142"/>
-      <c r="CR5" s="142"/>
-      <c r="CS5" s="142"/>
-      <c r="CT5" s="142"/>
-      <c r="CU5" s="142"/>
-      <c r="CV5" s="142"/>
-      <c r="CW5" s="142"/>
-      <c r="CX5" s="142"/>
-      <c r="CY5" s="142"/>
-      <c r="CZ5" s="142"/>
-      <c r="DA5" s="144"/>
-      <c r="DB5" s="226"/>
-      <c r="DC5" s="135"/>
-      <c r="DD5" s="135"/>
-      <c r="DE5" s="135"/>
-      <c r="DF5" s="135"/>
-      <c r="DG5" s="168"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="126"/>
+      <c r="BI5" s="126"/>
+      <c r="BJ5" s="126"/>
+      <c r="BK5" s="126"/>
+      <c r="BL5" s="126"/>
+      <c r="BM5" s="126"/>
+      <c r="BN5" s="126"/>
+      <c r="BO5" s="126"/>
+      <c r="BP5" s="126"/>
+      <c r="BQ5" s="126"/>
+      <c r="BR5" s="126"/>
+      <c r="BS5" s="126"/>
+      <c r="BT5" s="126"/>
+      <c r="BU5" s="126"/>
+      <c r="BV5" s="126"/>
+      <c r="BW5" s="126"/>
+      <c r="BX5" s="126"/>
+      <c r="BY5" s="126"/>
+      <c r="BZ5" s="126"/>
+      <c r="CA5" s="126"/>
+      <c r="CB5" s="126"/>
+      <c r="CC5" s="190"/>
+      <c r="CD5" s="129"/>
+      <c r="CE5" s="126"/>
+      <c r="CF5" s="126"/>
+      <c r="CG5" s="126"/>
+      <c r="CH5" s="126"/>
+      <c r="CI5" s="126"/>
+      <c r="CJ5" s="126"/>
+      <c r="CK5" s="126"/>
+      <c r="CL5" s="126"/>
+      <c r="CM5" s="126"/>
+      <c r="CN5" s="126"/>
+      <c r="CO5" s="126"/>
+      <c r="CP5" s="126"/>
+      <c r="CQ5" s="126"/>
+      <c r="CR5" s="126"/>
+      <c r="CS5" s="126"/>
+      <c r="CT5" s="126"/>
+      <c r="CU5" s="126"/>
+      <c r="CV5" s="126"/>
+      <c r="CW5" s="126"/>
+      <c r="CX5" s="126"/>
+      <c r="CY5" s="126"/>
+      <c r="CZ5" s="126"/>
+      <c r="DA5" s="190"/>
+      <c r="DB5" s="224"/>
+      <c r="DC5" s="239"/>
+      <c r="DD5" s="239"/>
+      <c r="DE5" s="239"/>
+      <c r="DF5" s="239"/>
+      <c r="DG5" s="218"/>
       <c r="DH5" s="248"/>
       <c r="DI5" s="251"/>
-      <c r="DJ5" s="242"/>
-      <c r="DK5" s="171"/>
-      <c r="DL5" s="236"/>
-      <c r="DM5" s="239"/>
+      <c r="DJ5" s="245"/>
+      <c r="DK5" s="221"/>
+      <c r="DL5" s="227"/>
+      <c r="DM5" s="242"/>
       <c r="DN5" s="46"/>
       <c r="DO5" s="8"/>
       <c r="DP5" s="106"/>
-      <c r="DQ5" s="156"/>
-      <c r="DR5" s="156"/>
-      <c r="DS5" s="156"/>
-      <c r="DT5" s="156"/>
-      <c r="DU5" s="160"/>
+      <c r="DQ5" s="207"/>
+      <c r="DR5" s="207"/>
+      <c r="DS5" s="207"/>
+      <c r="DT5" s="207"/>
+      <c r="DU5" s="210"/>
       <c r="DV5" s="36" t="s">
         <v>78</v>
       </c>
@@ -4343,79 +4354,79 @@
       </c>
     </row>
     <row r="6" spans="1:147" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="183"/>
-      <c r="G6" s="109" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="139"/>
+      <c r="G6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="N6" s="109" t="s">
+      <c r="N6" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="109" t="s">
+      <c r="O6" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="110" t="s">
+      <c r="P6" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="111" t="s">
+      <c r="Q6" s="110" t="s">
         <v>104</v>
       </c>
       <c r="R6" s="41"/>
-      <c r="S6" s="111" t="s">
+      <c r="S6" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="T6" s="109" t="s">
+      <c r="T6" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="U6" s="109" t="s">
+      <c r="U6" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="W6" s="109" t="s">
+      <c r="W6" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="X6" s="109" t="s">
+      <c r="X6" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="Y6" s="109" t="s">
+      <c r="Y6" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="Z6" s="110" t="s">
+      <c r="Z6" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="AA6" s="111" t="s">
+      <c r="AA6" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="AB6" s="109" t="s">
+      <c r="AB6" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="AC6" s="109" t="s">
+      <c r="AC6" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="AD6" s="109" t="s">
+      <c r="AD6" s="108" t="s">
         <v>106</v>
       </c>
       <c r="AE6" s="8"/>
@@ -4445,141 +4456,145 @@
       <c r="BC6" s="21"/>
       <c r="BD6" s="98"/>
       <c r="BE6" s="21"/>
-      <c r="BF6" s="245"/>
-      <c r="BG6" s="142"/>
-      <c r="BH6" s="142"/>
-      <c r="BI6" s="142"/>
-      <c r="BJ6" s="142"/>
-      <c r="BK6" s="142"/>
-      <c r="BL6" s="142"/>
-      <c r="BM6" s="142"/>
-      <c r="BN6" s="142"/>
-      <c r="BO6" s="142"/>
-      <c r="BP6" s="142"/>
-      <c r="BQ6" s="142"/>
-      <c r="BR6" s="142"/>
-      <c r="BS6" s="142"/>
-      <c r="BT6" s="142"/>
-      <c r="BU6" s="142"/>
-      <c r="BV6" s="142"/>
-      <c r="BW6" s="142"/>
-      <c r="BX6" s="142"/>
-      <c r="BY6" s="142"/>
-      <c r="BZ6" s="142"/>
-      <c r="CA6" s="142"/>
-      <c r="CB6" s="142"/>
-      <c r="CC6" s="144"/>
-      <c r="CD6" s="245"/>
-      <c r="CE6" s="142"/>
-      <c r="CF6" s="142"/>
-      <c r="CG6" s="142"/>
-      <c r="CH6" s="142"/>
-      <c r="CI6" s="142"/>
-      <c r="CJ6" s="142"/>
-      <c r="CK6" s="142"/>
-      <c r="CL6" s="142"/>
-      <c r="CM6" s="142"/>
-      <c r="CN6" s="142"/>
-      <c r="CO6" s="142"/>
-      <c r="CP6" s="142"/>
-      <c r="CQ6" s="142"/>
-      <c r="CR6" s="142"/>
-      <c r="CS6" s="142"/>
-      <c r="CT6" s="142"/>
-      <c r="CU6" s="142"/>
-      <c r="CV6" s="142"/>
-      <c r="CW6" s="142"/>
-      <c r="CX6" s="142"/>
-      <c r="CY6" s="142"/>
-      <c r="CZ6" s="142"/>
-      <c r="DA6" s="144"/>
-      <c r="DB6" s="226"/>
-      <c r="DC6" s="135"/>
-      <c r="DD6" s="135"/>
-      <c r="DE6" s="135"/>
-      <c r="DF6" s="135"/>
-      <c r="DG6" s="168"/>
+      <c r="BF6" s="129"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="126"/>
+      <c r="BI6" s="126"/>
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="126"/>
+      <c r="BR6" s="126"/>
+      <c r="BS6" s="126"/>
+      <c r="BT6" s="126"/>
+      <c r="BU6" s="126"/>
+      <c r="BV6" s="126"/>
+      <c r="BW6" s="126"/>
+      <c r="BX6" s="126"/>
+      <c r="BY6" s="126"/>
+      <c r="BZ6" s="126"/>
+      <c r="CA6" s="126"/>
+      <c r="CB6" s="126"/>
+      <c r="CC6" s="190"/>
+      <c r="CD6" s="129"/>
+      <c r="CE6" s="126"/>
+      <c r="CF6" s="126"/>
+      <c r="CG6" s="126"/>
+      <c r="CH6" s="126"/>
+      <c r="CI6" s="126"/>
+      <c r="CJ6" s="126"/>
+      <c r="CK6" s="126"/>
+      <c r="CL6" s="126"/>
+      <c r="CM6" s="126"/>
+      <c r="CN6" s="126"/>
+      <c r="CO6" s="126"/>
+      <c r="CP6" s="126"/>
+      <c r="CQ6" s="126"/>
+      <c r="CR6" s="126"/>
+      <c r="CS6" s="126"/>
+      <c r="CT6" s="126"/>
+      <c r="CU6" s="126"/>
+      <c r="CV6" s="126"/>
+      <c r="CW6" s="126"/>
+      <c r="CX6" s="126"/>
+      <c r="CY6" s="126"/>
+      <c r="CZ6" s="126"/>
+      <c r="DA6" s="190"/>
+      <c r="DB6" s="224"/>
+      <c r="DC6" s="239"/>
+      <c r="DD6" s="239"/>
+      <c r="DE6" s="239"/>
+      <c r="DF6" s="239"/>
+      <c r="DG6" s="218"/>
       <c r="DH6" s="248"/>
       <c r="DI6" s="251"/>
-      <c r="DJ6" s="242"/>
-      <c r="DK6" s="171"/>
-      <c r="DL6" s="236"/>
-      <c r="DM6" s="239"/>
+      <c r="DJ6" s="245"/>
+      <c r="DK6" s="221"/>
+      <c r="DL6" s="227"/>
+      <c r="DM6" s="242"/>
       <c r="DN6" s="46"/>
       <c r="DO6" s="8"/>
       <c r="DP6" s="106"/>
-      <c r="DQ6" s="157"/>
-      <c r="DR6" s="157"/>
-      <c r="DS6" s="157"/>
-      <c r="DT6" s="157"/>
-      <c r="DU6" s="161"/>
+      <c r="DQ6" s="175"/>
+      <c r="DR6" s="175"/>
+      <c r="DS6" s="175"/>
+      <c r="DT6" s="175"/>
+      <c r="DU6" s="211"/>
       <c r="DV6" s="46"/>
       <c r="DW6" s="8"/>
       <c r="DX6" s="106"/>
       <c r="DY6" s="8"/>
-      <c r="DZ6" s="109" t="s">
+      <c r="DZ6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EA6" s="109" t="s">
+      <c r="EA6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EB6" s="109" t="s">
+      <c r="EB6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EC6" s="110" t="s">
+      <c r="EC6" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="ED6" s="111" t="s">
+      <c r="ED6" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="EE6" s="109" t="s">
+      <c r="EE6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EF6" s="109" t="s">
+      <c r="EF6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EG6" s="109" t="s">
+      <c r="EG6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EH6" s="109" t="s">
+      <c r="EH6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EI6" s="109" t="s">
+      <c r="EI6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EJ6" s="109" t="s">
+      <c r="EJ6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EK6" s="110" t="s">
+      <c r="EK6" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="EL6" s="111" t="s">
+      <c r="EL6" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="EM6" s="109" t="s">
+      <c r="EM6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EN6" s="109" t="s">
+      <c r="EN6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EO6" s="109" t="s">
+      <c r="EO6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EP6" s="109" t="s">
+      <c r="EP6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="EQ6" s="109" t="s">
+      <c r="EQ6" s="108" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="192"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="183"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="139"/>
+      <c r="G7" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="124" t="s">
+        <v>282</v>
+      </c>
       <c r="I7" s="104" t="s">
         <v>279</v>
       </c>
@@ -4589,12 +4604,24 @@
       <c r="K7" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="108"/>
+      <c r="L7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="P7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q7" s="105" t="s">
+        <v>279</v>
+      </c>
       <c r="R7" s="41" t="s">
         <v>37</v>
       </c>
@@ -4607,11 +4634,21 @@
       <c r="U7" s="105" t="s">
         <v>280</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="49"/>
+      <c r="V7" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="W7" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="X7" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y7" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z7" s="105" t="s">
+        <v>280</v>
+      </c>
       <c r="AA7" s="50"/>
       <c r="AB7" s="48"/>
       <c r="AC7" s="48"/>
@@ -4643,66 +4680,66 @@
       <c r="BC7" s="27"/>
       <c r="BD7" s="23"/>
       <c r="BE7" s="27"/>
-      <c r="BF7" s="246"/>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="179"/>
-      <c r="BM7" s="179"/>
-      <c r="BN7" s="179"/>
-      <c r="BO7" s="179"/>
-      <c r="BP7" s="179"/>
-      <c r="BQ7" s="179"/>
-      <c r="BR7" s="179"/>
-      <c r="BS7" s="179"/>
-      <c r="BT7" s="179"/>
-      <c r="BU7" s="179"/>
-      <c r="BV7" s="179"/>
-      <c r="BW7" s="179"/>
-      <c r="BX7" s="179"/>
-      <c r="BY7" s="179"/>
-      <c r="BZ7" s="179"/>
-      <c r="CA7" s="179"/>
-      <c r="CB7" s="179"/>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="245"/>
-      <c r="CE7" s="142"/>
-      <c r="CF7" s="142"/>
-      <c r="CG7" s="142"/>
-      <c r="CH7" s="142"/>
-      <c r="CI7" s="142"/>
-      <c r="CJ7" s="142"/>
-      <c r="CK7" s="142"/>
-      <c r="CL7" s="142"/>
-      <c r="CM7" s="142"/>
-      <c r="CN7" s="142"/>
-      <c r="CO7" s="142"/>
-      <c r="CP7" s="142"/>
-      <c r="CQ7" s="142"/>
-      <c r="CR7" s="142"/>
-      <c r="CS7" s="142"/>
-      <c r="CT7" s="142"/>
-      <c r="CU7" s="142"/>
-      <c r="CV7" s="142"/>
-      <c r="CW7" s="142"/>
-      <c r="CX7" s="142"/>
-      <c r="CY7" s="142"/>
-      <c r="CZ7" s="142"/>
-      <c r="DA7" s="144"/>
-      <c r="DB7" s="227"/>
-      <c r="DC7" s="136"/>
-      <c r="DD7" s="136"/>
-      <c r="DE7" s="136"/>
-      <c r="DF7" s="136"/>
-      <c r="DG7" s="169"/>
+      <c r="BF7" s="182"/>
+      <c r="BG7" s="127"/>
+      <c r="BH7" s="127"/>
+      <c r="BI7" s="127"/>
+      <c r="BJ7" s="127"/>
+      <c r="BK7" s="127"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="127"/>
+      <c r="BN7" s="127"/>
+      <c r="BO7" s="127"/>
+      <c r="BP7" s="127"/>
+      <c r="BQ7" s="127"/>
+      <c r="BR7" s="127"/>
+      <c r="BS7" s="127"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="127"/>
+      <c r="BV7" s="127"/>
+      <c r="BW7" s="127"/>
+      <c r="BX7" s="127"/>
+      <c r="BY7" s="127"/>
+      <c r="BZ7" s="127"/>
+      <c r="CA7" s="127"/>
+      <c r="CB7" s="127"/>
+      <c r="CC7" s="191"/>
+      <c r="CD7" s="129"/>
+      <c r="CE7" s="126"/>
+      <c r="CF7" s="126"/>
+      <c r="CG7" s="126"/>
+      <c r="CH7" s="126"/>
+      <c r="CI7" s="126"/>
+      <c r="CJ7" s="126"/>
+      <c r="CK7" s="126"/>
+      <c r="CL7" s="126"/>
+      <c r="CM7" s="126"/>
+      <c r="CN7" s="126"/>
+      <c r="CO7" s="126"/>
+      <c r="CP7" s="126"/>
+      <c r="CQ7" s="126"/>
+      <c r="CR7" s="126"/>
+      <c r="CS7" s="126"/>
+      <c r="CT7" s="126"/>
+      <c r="CU7" s="126"/>
+      <c r="CV7" s="126"/>
+      <c r="CW7" s="126"/>
+      <c r="CX7" s="126"/>
+      <c r="CY7" s="126"/>
+      <c r="CZ7" s="126"/>
+      <c r="DA7" s="190"/>
+      <c r="DB7" s="225"/>
+      <c r="DC7" s="240"/>
+      <c r="DD7" s="240"/>
+      <c r="DE7" s="240"/>
+      <c r="DF7" s="240"/>
+      <c r="DG7" s="219"/>
       <c r="DH7" s="249"/>
       <c r="DI7" s="252"/>
-      <c r="DJ7" s="243"/>
-      <c r="DK7" s="172"/>
-      <c r="DL7" s="237"/>
-      <c r="DM7" s="240"/>
+      <c r="DJ7" s="246"/>
+      <c r="DK7" s="222"/>
+      <c r="DL7" s="228"/>
+      <c r="DM7" s="243"/>
       <c r="DN7" s="104" t="s">
         <v>224</v>
       </c>
@@ -4712,11 +4749,11 @@
       <c r="DP7" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="DQ7" s="158"/>
-      <c r="DR7" s="158"/>
-      <c r="DS7" s="158"/>
-      <c r="DT7" s="158"/>
-      <c r="DU7" s="162"/>
+      <c r="DQ7" s="208"/>
+      <c r="DR7" s="208"/>
+      <c r="DS7" s="208"/>
+      <c r="DT7" s="208"/>
+      <c r="DU7" s="212"/>
       <c r="DV7" s="104" t="s">
         <v>227</v>
       </c>
@@ -4726,11 +4763,21 @@
       <c r="DX7" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="DY7" s="42"/>
-      <c r="DZ7" s="48"/>
-      <c r="EA7" s="48"/>
-      <c r="EB7" s="48"/>
-      <c r="EC7" s="49"/>
+      <c r="DY7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="EA7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="EB7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="EC7" s="107" t="s">
+        <v>227</v>
+      </c>
       <c r="ED7" s="104" t="s">
         <v>281</v>
       </c>
@@ -4740,11 +4787,21 @@
       <c r="EF7" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="EG7" s="48"/>
-      <c r="EH7" s="48"/>
-      <c r="EI7" s="48"/>
-      <c r="EJ7" s="48"/>
-      <c r="EK7" s="49"/>
+      <c r="EG7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="EH7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="EI7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="EJ7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="EK7" s="107" t="s">
+        <v>281</v>
+      </c>
       <c r="EL7" s="104" t="s">
         <v>282</v>
       </c>
@@ -4754,178 +4811,184 @@
       <c r="EN7" s="107" t="s">
         <v>282</v>
       </c>
-      <c r="EO7" s="48"/>
-      <c r="EP7" s="48"/>
-      <c r="EQ7" s="48"/>
+      <c r="EO7" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="EP7" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="EQ7" s="107" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="8" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="193"/>
-      <c r="B8" s="183"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="183"/>
-      <c r="BV8" s="163" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="139"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="139"/>
+      <c r="BV8" s="213" t="s">
         <v>113</v>
       </c>
-      <c r="BW8" s="164"/>
-      <c r="BX8" s="164"/>
-      <c r="BY8" s="164"/>
-      <c r="BZ8" s="164"/>
-      <c r="CA8" s="164"/>
-      <c r="CB8" s="164"/>
-      <c r="CC8" s="164"/>
-      <c r="CD8" s="165"/>
-      <c r="CE8" s="165"/>
-      <c r="CF8" s="165"/>
-      <c r="CG8" s="165"/>
-      <c r="CH8" s="165"/>
-      <c r="CI8" s="165"/>
-      <c r="CJ8" s="165"/>
-      <c r="CK8" s="165"/>
-      <c r="CL8" s="165"/>
-      <c r="CM8" s="165"/>
-      <c r="CN8" s="165"/>
-      <c r="CO8" s="165"/>
-      <c r="CP8" s="165"/>
-      <c r="CQ8" s="165"/>
-      <c r="CR8" s="165"/>
-      <c r="CS8" s="165"/>
-      <c r="CT8" s="165"/>
-      <c r="CU8" s="165"/>
-      <c r="CV8" s="165"/>
-      <c r="CW8" s="165"/>
-      <c r="CX8" s="165"/>
-      <c r="CY8" s="165"/>
-      <c r="CZ8" s="165"/>
-      <c r="DA8" s="166"/>
+      <c r="BW8" s="214"/>
+      <c r="BX8" s="214"/>
+      <c r="BY8" s="214"/>
+      <c r="BZ8" s="214"/>
+      <c r="CA8" s="214"/>
+      <c r="CB8" s="214"/>
+      <c r="CC8" s="214"/>
+      <c r="CD8" s="215"/>
+      <c r="CE8" s="215"/>
+      <c r="CF8" s="215"/>
+      <c r="CG8" s="215"/>
+      <c r="CH8" s="215"/>
+      <c r="CI8" s="215"/>
+      <c r="CJ8" s="215"/>
+      <c r="CK8" s="215"/>
+      <c r="CL8" s="215"/>
+      <c r="CM8" s="215"/>
+      <c r="CN8" s="215"/>
+      <c r="CO8" s="215"/>
+      <c r="CP8" s="215"/>
+      <c r="CQ8" s="215"/>
+      <c r="CR8" s="215"/>
+      <c r="CS8" s="215"/>
+      <c r="CT8" s="215"/>
+      <c r="CU8" s="215"/>
+      <c r="CV8" s="215"/>
+      <c r="CW8" s="215"/>
+      <c r="CX8" s="215"/>
+      <c r="CY8" s="215"/>
+      <c r="CZ8" s="215"/>
+      <c r="DA8" s="216"/>
     </row>
     <row r="9" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
-      <c r="B9" s="183"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="183"/>
-      <c r="AG9" s="145" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="139"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="139"/>
+      <c r="AG9" s="196" t="s">
         <v>365</v>
       </c>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="146"/>
-      <c r="AJ9" s="146"/>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="146"/>
-      <c r="AM9" s="146"/>
-      <c r="AN9" s="146"/>
-      <c r="AO9" s="146"/>
-      <c r="AP9" s="146"/>
-      <c r="AQ9" s="146"/>
-      <c r="AR9" s="146"/>
-      <c r="AS9" s="146"/>
-      <c r="AT9" s="146"/>
-      <c r="AU9" s="146"/>
-      <c r="AV9" s="146"/>
-      <c r="AW9" s="146"/>
-      <c r="AX9" s="146"/>
-      <c r="AY9" s="146"/>
-      <c r="AZ9" s="146"/>
-      <c r="BA9" s="146"/>
-      <c r="BB9" s="146"/>
-      <c r="BC9" s="146"/>
-      <c r="BD9" s="146"/>
-      <c r="BE9" s="146"/>
-      <c r="BF9" s="146"/>
-      <c r="BG9" s="146"/>
-      <c r="BH9" s="146"/>
-      <c r="BI9" s="146"/>
-      <c r="BJ9" s="146"/>
-      <c r="BK9" s="146"/>
-      <c r="BL9" s="146"/>
-      <c r="BM9" s="146"/>
-      <c r="BN9" s="146"/>
-      <c r="BO9" s="146"/>
-      <c r="BP9" s="146"/>
-      <c r="BQ9" s="146"/>
-      <c r="BR9" s="146"/>
-      <c r="BS9" s="146"/>
-      <c r="BT9" s="146"/>
-      <c r="BU9" s="146"/>
-      <c r="BV9" s="146"/>
-      <c r="BW9" s="146"/>
-      <c r="BX9" s="146"/>
-      <c r="BY9" s="146"/>
-      <c r="BZ9" s="146"/>
-      <c r="CA9" s="146"/>
-      <c r="CB9" s="146"/>
-      <c r="CC9" s="146"/>
-      <c r="CD9" s="146"/>
-      <c r="CE9" s="146"/>
-      <c r="CF9" s="146"/>
-      <c r="CG9" s="146"/>
-      <c r="CH9" s="146"/>
-      <c r="CI9" s="146"/>
-      <c r="CJ9" s="146"/>
-      <c r="CK9" s="146"/>
-      <c r="CL9" s="146"/>
-      <c r="CM9" s="146"/>
-      <c r="CN9" s="146"/>
-      <c r="CO9" s="146"/>
-      <c r="CP9" s="146"/>
-      <c r="CQ9" s="146"/>
-      <c r="CR9" s="146"/>
-      <c r="CS9" s="146"/>
-      <c r="CT9" s="146"/>
-      <c r="CU9" s="146"/>
-      <c r="CV9" s="146"/>
-      <c r="CW9" s="146"/>
-      <c r="CX9" s="146"/>
-      <c r="CY9" s="146"/>
-      <c r="CZ9" s="146"/>
-      <c r="DA9" s="146"/>
-      <c r="DB9" s="146"/>
-      <c r="DC9" s="146"/>
-      <c r="DD9" s="146"/>
-      <c r="DE9" s="146"/>
-      <c r="DF9" s="146"/>
-      <c r="DG9" s="146"/>
-      <c r="DH9" s="146"/>
-      <c r="DI9" s="146"/>
-      <c r="DJ9" s="146"/>
-      <c r="DK9" s="146"/>
-      <c r="DL9" s="146"/>
-      <c r="DM9" s="146"/>
-      <c r="DN9" s="146"/>
-      <c r="DO9" s="146"/>
-      <c r="DP9" s="146"/>
-      <c r="DQ9" s="146"/>
-      <c r="DR9" s="146"/>
-      <c r="DS9" s="146"/>
-      <c r="DT9" s="146"/>
-      <c r="DU9" s="146"/>
-      <c r="DV9" s="146"/>
-      <c r="DW9" s="146"/>
-      <c r="DX9" s="146"/>
-      <c r="DY9" s="146"/>
-      <c r="DZ9" s="146"/>
-      <c r="EA9" s="146"/>
-      <c r="EB9" s="146"/>
-      <c r="EC9" s="146"/>
-      <c r="ED9" s="146"/>
-      <c r="EE9" s="146"/>
-      <c r="EF9" s="146"/>
-      <c r="EG9" s="146"/>
-      <c r="EH9" s="146"/>
-      <c r="EI9" s="146"/>
-      <c r="EJ9" s="146"/>
-      <c r="EK9" s="146"/>
-      <c r="EL9" s="146"/>
-      <c r="EM9" s="146"/>
-      <c r="EN9" s="146"/>
-      <c r="EO9" s="146"/>
-      <c r="EP9" s="146"/>
-      <c r="EQ9" s="147"/>
+      <c r="AH9" s="197"/>
+      <c r="AI9" s="197"/>
+      <c r="AJ9" s="197"/>
+      <c r="AK9" s="197"/>
+      <c r="AL9" s="197"/>
+      <c r="AM9" s="197"/>
+      <c r="AN9" s="197"/>
+      <c r="AO9" s="197"/>
+      <c r="AP9" s="197"/>
+      <c r="AQ9" s="197"/>
+      <c r="AR9" s="197"/>
+      <c r="AS9" s="197"/>
+      <c r="AT9" s="197"/>
+      <c r="AU9" s="197"/>
+      <c r="AV9" s="197"/>
+      <c r="AW9" s="197"/>
+      <c r="AX9" s="197"/>
+      <c r="AY9" s="197"/>
+      <c r="AZ9" s="197"/>
+      <c r="BA9" s="197"/>
+      <c r="BB9" s="197"/>
+      <c r="BC9" s="197"/>
+      <c r="BD9" s="197"/>
+      <c r="BE9" s="197"/>
+      <c r="BF9" s="197"/>
+      <c r="BG9" s="197"/>
+      <c r="BH9" s="197"/>
+      <c r="BI9" s="197"/>
+      <c r="BJ9" s="197"/>
+      <c r="BK9" s="197"/>
+      <c r="BL9" s="197"/>
+      <c r="BM9" s="197"/>
+      <c r="BN9" s="197"/>
+      <c r="BO9" s="197"/>
+      <c r="BP9" s="197"/>
+      <c r="BQ9" s="197"/>
+      <c r="BR9" s="197"/>
+      <c r="BS9" s="197"/>
+      <c r="BT9" s="197"/>
+      <c r="BU9" s="197"/>
+      <c r="BV9" s="197"/>
+      <c r="BW9" s="197"/>
+      <c r="BX9" s="197"/>
+      <c r="BY9" s="197"/>
+      <c r="BZ9" s="197"/>
+      <c r="CA9" s="197"/>
+      <c r="CB9" s="197"/>
+      <c r="CC9" s="197"/>
+      <c r="CD9" s="197"/>
+      <c r="CE9" s="197"/>
+      <c r="CF9" s="197"/>
+      <c r="CG9" s="197"/>
+      <c r="CH9" s="197"/>
+      <c r="CI9" s="197"/>
+      <c r="CJ9" s="197"/>
+      <c r="CK9" s="197"/>
+      <c r="CL9" s="197"/>
+      <c r="CM9" s="197"/>
+      <c r="CN9" s="197"/>
+      <c r="CO9" s="197"/>
+      <c r="CP9" s="197"/>
+      <c r="CQ9" s="197"/>
+      <c r="CR9" s="197"/>
+      <c r="CS9" s="197"/>
+      <c r="CT9" s="197"/>
+      <c r="CU9" s="197"/>
+      <c r="CV9" s="197"/>
+      <c r="CW9" s="197"/>
+      <c r="CX9" s="197"/>
+      <c r="CY9" s="197"/>
+      <c r="CZ9" s="197"/>
+      <c r="DA9" s="197"/>
+      <c r="DB9" s="197"/>
+      <c r="DC9" s="197"/>
+      <c r="DD9" s="197"/>
+      <c r="DE9" s="197"/>
+      <c r="DF9" s="197"/>
+      <c r="DG9" s="197"/>
+      <c r="DH9" s="197"/>
+      <c r="DI9" s="197"/>
+      <c r="DJ9" s="197"/>
+      <c r="DK9" s="197"/>
+      <c r="DL9" s="197"/>
+      <c r="DM9" s="197"/>
+      <c r="DN9" s="197"/>
+      <c r="DO9" s="197"/>
+      <c r="DP9" s="197"/>
+      <c r="DQ9" s="197"/>
+      <c r="DR9" s="197"/>
+      <c r="DS9" s="197"/>
+      <c r="DT9" s="197"/>
+      <c r="DU9" s="197"/>
+      <c r="DV9" s="197"/>
+      <c r="DW9" s="197"/>
+      <c r="DX9" s="197"/>
+      <c r="DY9" s="197"/>
+      <c r="DZ9" s="197"/>
+      <c r="EA9" s="197"/>
+      <c r="EB9" s="197"/>
+      <c r="EC9" s="197"/>
+      <c r="ED9" s="197"/>
+      <c r="EE9" s="197"/>
+      <c r="EF9" s="197"/>
+      <c r="EG9" s="197"/>
+      <c r="EH9" s="197"/>
+      <c r="EI9" s="197"/>
+      <c r="EJ9" s="197"/>
+      <c r="EK9" s="197"/>
+      <c r="EL9" s="197"/>
+      <c r="EM9" s="197"/>
+      <c r="EN9" s="197"/>
+      <c r="EO9" s="197"/>
+      <c r="EP9" s="197"/>
+      <c r="EQ9" s="198"/>
     </row>
     <row r="10" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
-      <c r="B10" s="183"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="183"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="139"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>147</v>
       </c>
@@ -4960,143 +5023,143 @@
       <c r="BS10" s="9"/>
       <c r="BT10" s="9"/>
       <c r="BU10" s="9"/>
-      <c r="DM10" s="152" t="s">
+      <c r="DM10" s="203" t="s">
         <v>116</v>
       </c>
-      <c r="DN10" s="153"/>
-      <c r="DO10" s="153"/>
-      <c r="DP10" s="153"/>
-      <c r="DQ10" s="153"/>
-      <c r="DR10" s="153"/>
-      <c r="DS10" s="153"/>
-      <c r="DT10" s="153"/>
-      <c r="DU10" s="153"/>
-      <c r="DV10" s="153"/>
-      <c r="DW10" s="153"/>
-      <c r="DX10" s="153"/>
-      <c r="DY10" s="153"/>
-      <c r="DZ10" s="153"/>
-      <c r="EA10" s="153"/>
-      <c r="EB10" s="153"/>
-      <c r="EC10" s="153"/>
-      <c r="ED10" s="153"/>
-      <c r="EE10" s="153"/>
-      <c r="EF10" s="153"/>
-      <c r="EG10" s="153"/>
-      <c r="EH10" s="153"/>
-      <c r="EI10" s="153"/>
-      <c r="EJ10" s="154"/>
+      <c r="DN10" s="204"/>
+      <c r="DO10" s="204"/>
+      <c r="DP10" s="204"/>
+      <c r="DQ10" s="204"/>
+      <c r="DR10" s="204"/>
+      <c r="DS10" s="204"/>
+      <c r="DT10" s="204"/>
+      <c r="DU10" s="204"/>
+      <c r="DV10" s="204"/>
+      <c r="DW10" s="204"/>
+      <c r="DX10" s="204"/>
+      <c r="DY10" s="204"/>
+      <c r="DZ10" s="204"/>
+      <c r="EA10" s="204"/>
+      <c r="EB10" s="204"/>
+      <c r="EC10" s="204"/>
+      <c r="ED10" s="204"/>
+      <c r="EE10" s="204"/>
+      <c r="EF10" s="204"/>
+      <c r="EG10" s="204"/>
+      <c r="EH10" s="204"/>
+      <c r="EI10" s="204"/>
+      <c r="EJ10" s="205"/>
     </row>
     <row r="11" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
-      <c r="B11" s="183"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="183"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="139"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="139"/>
       <c r="I11" s="57" t="s">
         <v>146</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AS11" s="148" t="s">
+      <c r="AS11" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="AT11" s="149"/>
-      <c r="AU11" s="149"/>
-      <c r="AV11" s="149"/>
-      <c r="AW11" s="149"/>
-      <c r="AX11" s="149"/>
-      <c r="AY11" s="149"/>
-      <c r="AZ11" s="149"/>
-      <c r="BA11" s="149"/>
-      <c r="BB11" s="149"/>
-      <c r="BC11" s="149"/>
-      <c r="BD11" s="149"/>
-      <c r="BE11" s="149"/>
-      <c r="BF11" s="149"/>
-      <c r="BG11" s="149"/>
-      <c r="BH11" s="149"/>
-      <c r="BI11" s="149"/>
-      <c r="BJ11" s="149"/>
-      <c r="BK11" s="149"/>
-      <c r="BL11" s="149"/>
-      <c r="BM11" s="149"/>
-      <c r="BN11" s="149"/>
-      <c r="BO11" s="149"/>
-      <c r="BP11" s="149"/>
-      <c r="BQ11" s="149"/>
-      <c r="BR11" s="149"/>
-      <c r="BS11" s="149"/>
-      <c r="BT11" s="149"/>
-      <c r="BU11" s="149"/>
-      <c r="BV11" s="149"/>
-      <c r="BW11" s="149"/>
-      <c r="BX11" s="149"/>
-      <c r="BY11" s="149"/>
-      <c r="BZ11" s="149"/>
-      <c r="CA11" s="149"/>
-      <c r="CB11" s="149"/>
-      <c r="CC11" s="149"/>
-      <c r="CD11" s="149"/>
-      <c r="CE11" s="149"/>
-      <c r="CF11" s="149"/>
-      <c r="CG11" s="149"/>
-      <c r="CH11" s="149"/>
-      <c r="CI11" s="149"/>
-      <c r="CJ11" s="149"/>
-      <c r="CK11" s="149"/>
-      <c r="CL11" s="149"/>
-      <c r="CM11" s="149"/>
-      <c r="CN11" s="149"/>
-      <c r="CO11" s="149"/>
-      <c r="CP11" s="149"/>
-      <c r="CQ11" s="149"/>
-      <c r="CR11" s="149"/>
-      <c r="CS11" s="149"/>
-      <c r="CT11" s="149"/>
-      <c r="CU11" s="149"/>
-      <c r="CV11" s="149"/>
-      <c r="CW11" s="149"/>
-      <c r="CX11" s="149"/>
-      <c r="CY11" s="149"/>
-      <c r="CZ11" s="149"/>
-      <c r="DA11" s="149"/>
-      <c r="DB11" s="149"/>
-      <c r="DC11" s="149"/>
-      <c r="DD11" s="149"/>
-      <c r="DE11" s="149"/>
-      <c r="DF11" s="149"/>
-      <c r="DG11" s="149"/>
-      <c r="DH11" s="149"/>
-      <c r="DI11" s="149"/>
-      <c r="DJ11" s="149"/>
-      <c r="DK11" s="149"/>
-      <c r="DL11" s="149"/>
-      <c r="DM11" s="150"/>
-      <c r="DN11" s="150"/>
-      <c r="DO11" s="150"/>
-      <c r="DP11" s="150"/>
-      <c r="DQ11" s="150"/>
-      <c r="DR11" s="150"/>
-      <c r="DS11" s="150"/>
-      <c r="DT11" s="150"/>
-      <c r="DU11" s="150"/>
-      <c r="DV11" s="150"/>
-      <c r="DW11" s="150"/>
-      <c r="DX11" s="150"/>
-      <c r="DY11" s="150"/>
-      <c r="DZ11" s="150"/>
-      <c r="EA11" s="151"/>
+      <c r="AT11" s="200"/>
+      <c r="AU11" s="200"/>
+      <c r="AV11" s="200"/>
+      <c r="AW11" s="200"/>
+      <c r="AX11" s="200"/>
+      <c r="AY11" s="200"/>
+      <c r="AZ11" s="200"/>
+      <c r="BA11" s="200"/>
+      <c r="BB11" s="200"/>
+      <c r="BC11" s="200"/>
+      <c r="BD11" s="200"/>
+      <c r="BE11" s="200"/>
+      <c r="BF11" s="200"/>
+      <c r="BG11" s="200"/>
+      <c r="BH11" s="200"/>
+      <c r="BI11" s="200"/>
+      <c r="BJ11" s="200"/>
+      <c r="BK11" s="200"/>
+      <c r="BL11" s="200"/>
+      <c r="BM11" s="200"/>
+      <c r="BN11" s="200"/>
+      <c r="BO11" s="200"/>
+      <c r="BP11" s="200"/>
+      <c r="BQ11" s="200"/>
+      <c r="BR11" s="200"/>
+      <c r="BS11" s="200"/>
+      <c r="BT11" s="200"/>
+      <c r="BU11" s="200"/>
+      <c r="BV11" s="200"/>
+      <c r="BW11" s="200"/>
+      <c r="BX11" s="200"/>
+      <c r="BY11" s="200"/>
+      <c r="BZ11" s="200"/>
+      <c r="CA11" s="200"/>
+      <c r="CB11" s="200"/>
+      <c r="CC11" s="200"/>
+      <c r="CD11" s="200"/>
+      <c r="CE11" s="200"/>
+      <c r="CF11" s="200"/>
+      <c r="CG11" s="200"/>
+      <c r="CH11" s="200"/>
+      <c r="CI11" s="200"/>
+      <c r="CJ11" s="200"/>
+      <c r="CK11" s="200"/>
+      <c r="CL11" s="200"/>
+      <c r="CM11" s="200"/>
+      <c r="CN11" s="200"/>
+      <c r="CO11" s="200"/>
+      <c r="CP11" s="200"/>
+      <c r="CQ11" s="200"/>
+      <c r="CR11" s="200"/>
+      <c r="CS11" s="200"/>
+      <c r="CT11" s="200"/>
+      <c r="CU11" s="200"/>
+      <c r="CV11" s="200"/>
+      <c r="CW11" s="200"/>
+      <c r="CX11" s="200"/>
+      <c r="CY11" s="200"/>
+      <c r="CZ11" s="200"/>
+      <c r="DA11" s="200"/>
+      <c r="DB11" s="200"/>
+      <c r="DC11" s="200"/>
+      <c r="DD11" s="200"/>
+      <c r="DE11" s="200"/>
+      <c r="DF11" s="200"/>
+      <c r="DG11" s="200"/>
+      <c r="DH11" s="200"/>
+      <c r="DI11" s="200"/>
+      <c r="DJ11" s="200"/>
+      <c r="DK11" s="200"/>
+      <c r="DL11" s="200"/>
+      <c r="DM11" s="201"/>
+      <c r="DN11" s="201"/>
+      <c r="DO11" s="201"/>
+      <c r="DP11" s="201"/>
+      <c r="DQ11" s="201"/>
+      <c r="DR11" s="201"/>
+      <c r="DS11" s="201"/>
+      <c r="DT11" s="201"/>
+      <c r="DU11" s="201"/>
+      <c r="DV11" s="201"/>
+      <c r="DW11" s="201"/>
+      <c r="DX11" s="201"/>
+      <c r="DY11" s="201"/>
+      <c r="DZ11" s="201"/>
+      <c r="EA11" s="202"/>
     </row>
     <row r="12" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="183"/>
+      <c r="B12" s="139"/>
       <c r="D12" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="183"/>
+      <c r="E12" s="139"/>
       <c r="I12" s="103" t="s">
         <v>226</v>
       </c>
@@ -5108,11 +5171,11 @@
       <c r="A13" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="183"/>
+      <c r="B13" s="139"/>
       <c r="D13" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="183"/>
+      <c r="E13" s="139"/>
       <c r="I13" s="16" t="s">
         <v>70</v>
       </c>
@@ -5124,11 +5187,11 @@
       <c r="A14" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="183"/>
+      <c r="B14" s="139"/>
       <c r="D14" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="183"/>
+      <c r="E14" s="139"/>
       <c r="I14" s="17" t="s">
         <v>71</v>
       </c>
@@ -5138,42 +5201,42 @@
     </row>
     <row r="15" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
-      <c r="B15" s="183"/>
+      <c r="B15" s="139"/>
       <c r="D15" s="79"/>
-      <c r="E15" s="183"/>
-      <c r="I15" s="118" t="s">
+      <c r="E15" s="139"/>
+      <c r="I15" s="117" t="s">
         <v>361</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="N15" s="117"/>
-      <c r="DM15" s="140" t="s">
+      <c r="N15" s="116"/>
+      <c r="DM15" s="195" t="s">
         <v>211</v>
       </c>
-      <c r="DN15" s="140"/>
+      <c r="DN15" s="195"/>
     </row>
     <row r="16" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="183"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="183"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="139"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="139"/>
       <c r="I16" s="19" t="s">
         <v>145</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="DM16" s="140" t="s">
+      <c r="DM16" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="DN16" s="140"/>
+      <c r="DN16" s="195"/>
     </row>
     <row r="17" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
-      <c r="B17" s="183"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="183"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="139"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="139"/>
       <c r="I17" s="14" t="s">
         <v>277</v>
       </c>
@@ -5182,11 +5245,11 @@
       </c>
     </row>
     <row r="18" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
-      <c r="B18" s="183"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="183"/>
-      <c r="I18" s="115" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="139"/>
+      <c r="I18" s="114" t="s">
         <v>292</v>
       </c>
       <c r="J18" s="13" t="s">
@@ -5194,10 +5257,10 @@
       </c>
     </row>
     <row r="19" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="192"/>
-      <c r="B19" s="183"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="183"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="139"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="139"/>
       <c r="I19" s="15" t="s">
         <v>1</v>
       </c>
@@ -5206,10 +5269,10 @@
       </c>
     </row>
     <row r="20" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
-      <c r="B20" s="183"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="183"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="139"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="139"/>
       <c r="I20" s="99" t="s">
         <v>1</v>
       </c>
@@ -5218,11 +5281,11 @@
       </c>
     </row>
     <row r="21" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
-      <c r="B21" s="183"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="183"/>
-      <c r="I21" s="116" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="139"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="139"/>
+      <c r="I21" s="115" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
@@ -5230,25 +5293,25 @@
       </c>
     </row>
     <row r="22" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="183"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="183"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="139"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="139"/>
     </row>
     <row r="23" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
-      <c r="B23" s="183"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="183"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="139"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="139"/>
     </row>
     <row r="24" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="183"/>
-      <c r="C24" s="229"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="183"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="139"/>
       <c r="G24" s="59"/>
       <c r="H24" s="60"/>
       <c r="I24" s="60"/>
@@ -5310,7 +5373,7 @@
       <c r="BM24" s="60"/>
       <c r="BN24" s="60"/>
       <c r="BO24" s="60"/>
-      <c r="BP24" s="232" t="s">
+      <c r="BP24" s="179" t="s">
         <v>363</v>
       </c>
       <c r="BQ24" s="60"/>
@@ -5394,11 +5457,11 @@
       <c r="EQ24" s="6"/>
     </row>
     <row r="25" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="229"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="183"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="139"/>
       <c r="G25" s="61"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -5460,7 +5523,7 @@
       <c r="BM25" s="62"/>
       <c r="BN25" s="62"/>
       <c r="BO25" s="62"/>
-      <c r="BP25" s="233"/>
+      <c r="BP25" s="180"/>
       <c r="BQ25" s="62"/>
       <c r="BR25" s="62"/>
       <c r="BS25" s="62"/>
@@ -5542,11 +5605,11 @@
       <c r="EQ25" s="63"/>
     </row>
     <row r="26" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="229"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="183"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="139"/>
       <c r="G26" s="61"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -5608,7 +5671,7 @@
       <c r="BM26" s="62"/>
       <c r="BN26" s="62"/>
       <c r="BO26" s="62"/>
-      <c r="BP26" s="233"/>
+      <c r="BP26" s="180"/>
       <c r="BQ26" s="62"/>
       <c r="BR26" s="62"/>
       <c r="BS26" s="62"/>
@@ -5690,11 +5753,11 @@
       <c r="EQ26" s="63"/>
     </row>
     <row r="27" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="200"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="229"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="183"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="139"/>
       <c r="G27" s="3"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -5756,7 +5819,7 @@
       <c r="BM27" s="27"/>
       <c r="BN27" s="27"/>
       <c r="BO27" s="27"/>
-      <c r="BP27" s="234"/>
+      <c r="BP27" s="181"/>
       <c r="BQ27" s="27"/>
       <c r="BR27" s="27"/>
       <c r="BS27" s="27"/>
@@ -5838,15 +5901,15 @@
       <c r="EQ27" s="28"/>
     </row>
     <row r="28" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="183"/>
-      <c r="G28" s="181" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="139"/>
+      <c r="G28" s="174" t="s">
         <v>216</v>
       </c>
       <c r="H28" s="59"/>
@@ -5956,7 +6019,7 @@
       <c r="DH28" s="60"/>
       <c r="DI28" s="60"/>
       <c r="DJ28" s="60"/>
-      <c r="DL28" s="131" t="s">
+      <c r="DL28" s="235" t="s">
         <v>370</v>
       </c>
       <c r="DM28" s="60"/>
@@ -5992,11 +6055,11 @@
       <c r="EQ28" s="6"/>
     </row>
     <row r="29" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
-      <c r="B29" s="217"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="183"/>
-      <c r="G29" s="181"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="145"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="139"/>
+      <c r="G29" s="174"/>
       <c r="H29" s="61"/>
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
@@ -6104,7 +6167,7 @@
       <c r="DH29" s="62"/>
       <c r="DI29" s="62"/>
       <c r="DJ29" s="62"/>
-      <c r="DL29" s="132"/>
+      <c r="DL29" s="236"/>
       <c r="DM29" s="62"/>
       <c r="DN29" s="62"/>
       <c r="DO29" s="62"/>
@@ -6138,11 +6201,11 @@
       <c r="EQ29" s="63"/>
     </row>
     <row r="30" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="186"/>
-      <c r="B30" s="217"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="183"/>
-      <c r="G30" s="181"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="145"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="139"/>
+      <c r="G30" s="174"/>
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
@@ -6250,7 +6313,7 @@
       <c r="DH30" s="62"/>
       <c r="DI30" s="62"/>
       <c r="DJ30" s="62"/>
-      <c r="DL30" s="132"/>
+      <c r="DL30" s="236"/>
       <c r="DM30" s="62"/>
       <c r="DN30" s="62"/>
       <c r="DO30" s="62"/>
@@ -6284,11 +6347,11 @@
       <c r="EQ30" s="63"/>
     </row>
     <row r="31" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="189"/>
-      <c r="B31" s="217"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="183"/>
-      <c r="G31" s="181"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="145"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="139"/>
+      <c r="G31" s="174"/>
       <c r="H31" s="3"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
@@ -6396,7 +6459,7 @@
       <c r="DH31" s="27"/>
       <c r="DI31" s="27"/>
       <c r="DJ31" s="27"/>
-      <c r="DL31" s="133"/>
+      <c r="DL31" s="237"/>
       <c r="DM31" s="27"/>
       <c r="DN31" s="27"/>
       <c r="DO31" s="27"/>
@@ -6433,11 +6496,11 @@
       <c r="A32" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="145"/>
       <c r="D32" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="183"/>
+      <c r="E32" s="139"/>
       <c r="G32" s="96" t="s">
         <v>154</v>
       </c>
@@ -6586,11 +6649,11 @@
       <c r="A33" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="217"/>
+      <c r="B33" s="145"/>
       <c r="D33" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="183"/>
+      <c r="E33" s="139"/>
       <c r="G33" s="95" t="s">
         <v>154</v>
       </c>
@@ -6739,11 +6802,11 @@
       <c r="A34" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="217"/>
+      <c r="B34" s="145"/>
       <c r="D34" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="183"/>
+      <c r="E34" s="139"/>
       <c r="G34" s="95" t="s">
         <v>154</v>
       </c>
@@ -6890,9 +6953,9 @@
     </row>
     <row r="35" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="83"/>
-      <c r="B35" s="217"/>
+      <c r="B35" s="145"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="183"/>
+      <c r="E35" s="139"/>
       <c r="G35" s="95"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -7036,10 +7099,10 @@
       <c r="EQ35" s="28"/>
     </row>
     <row r="36" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
-      <c r="B36" s="217"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="145"/>
       <c r="D36" s="80"/>
-      <c r="E36" s="183"/>
+      <c r="E36" s="139"/>
       <c r="G36" s="12"/>
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
@@ -7183,10 +7246,10 @@
       <c r="EQ36" s="6"/>
     </row>
     <row r="37" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
-      <c r="B37" s="217"/>
+      <c r="A37" s="142"/>
+      <c r="B37" s="145"/>
       <c r="D37" s="79"/>
-      <c r="E37" s="183"/>
+      <c r="E37" s="139"/>
       <c r="G37" s="94"/>
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
@@ -7330,10 +7393,10 @@
       <c r="EQ37" s="63"/>
     </row>
     <row r="38" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="186"/>
-      <c r="B38" s="217"/>
+      <c r="A38" s="142"/>
+      <c r="B38" s="145"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="183"/>
+      <c r="E38" s="139"/>
       <c r="G38" s="94"/>
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
@@ -7477,10 +7540,10 @@
       <c r="EQ38" s="63"/>
     </row>
     <row r="39" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="196"/>
-      <c r="B39" s="218"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="146"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="183"/>
+      <c r="E39" s="139"/>
       <c r="G39" s="94"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -7624,37 +7687,37 @@
       <c r="EQ39" s="28"/>
     </row>
     <row r="40" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="230"/>
-      <c r="B40" s="213" t="s">
+      <c r="A40" s="147"/>
+      <c r="B40" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="183"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="139"/>
       <c r="G40" s="12"/>
-      <c r="DH40" s="124"/>
+      <c r="DH40" s="123"/>
       <c r="EQ40" s="6"/>
     </row>
     <row r="41" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="211"/>
-      <c r="B41" s="214"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="183"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="132"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="139"/>
       <c r="G41" s="94"/>
       <c r="EQ41" s="63"/>
     </row>
     <row r="42" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="211"/>
-      <c r="B42" s="214"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="183"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="132"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="139"/>
       <c r="G42" s="94"/>
       <c r="EQ42" s="63"/>
     </row>
     <row r="43" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="231"/>
-      <c r="B43" s="214"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="183"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="132"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="139"/>
       <c r="G43" s="94"/>
       <c r="EQ43" s="63"/>
     </row>
@@ -7662,11 +7725,11 @@
       <c r="A44" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="214"/>
+      <c r="B44" s="132"/>
       <c r="D44" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="183"/>
+      <c r="E44" s="139"/>
       <c r="G44" s="96" t="s">
         <v>154</v>
       </c>
@@ -7815,11 +7878,11 @@
       <c r="A45" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="214"/>
+      <c r="B45" s="132"/>
       <c r="D45" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="183"/>
+      <c r="E45" s="139"/>
       <c r="G45" s="95" t="s">
         <v>154</v>
       </c>
@@ -7968,11 +8031,11 @@
       <c r="A46" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="214"/>
+      <c r="B46" s="132"/>
       <c r="D46" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="183"/>
+      <c r="E46" s="139"/>
       <c r="G46" s="95" t="s">
         <v>154</v>
       </c>
@@ -8119,9 +8182,9 @@
     </row>
     <row r="47" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
-      <c r="B47" s="214"/>
+      <c r="B47" s="132"/>
       <c r="D47" s="79"/>
-      <c r="E47" s="183"/>
+      <c r="E47" s="139"/>
       <c r="G47" s="95"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -8265,57 +8328,57 @@
       <c r="EQ47" s="28"/>
     </row>
     <row r="48" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="203" t="s">
+      <c r="A48" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="B48" s="214"/>
-      <c r="D48" s="193" t="s">
+      <c r="B48" s="132"/>
+      <c r="D48" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="183"/>
+      <c r="E48" s="139"/>
       <c r="G48" s="12"/>
-      <c r="EQ48" s="128" t="s">
+      <c r="EQ48" s="232" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="203"/>
-      <c r="B49" s="214"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="183"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="132"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="139"/>
       <c r="G49" s="61"/>
-      <c r="EQ49" s="128"/>
+      <c r="EQ49" s="232"/>
     </row>
     <row r="50" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="203"/>
-      <c r="B50" s="214"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="183"/>
+      <c r="A50" s="159"/>
+      <c r="B50" s="132"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="139"/>
       <c r="G50" s="61"/>
-      <c r="EQ50" s="128"/>
+      <c r="EQ50" s="232"/>
     </row>
     <row r="51" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="204"/>
-      <c r="B51" s="215"/>
-      <c r="D51" s="192"/>
-      <c r="E51" s="184"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="133"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="140"/>
       <c r="G51" s="3"/>
-      <c r="EQ51" s="128"/>
+      <c r="EQ51" s="232"/>
     </row>
     <row r="52" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="219" t="s">
+      <c r="A52" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="206" t="s">
+      <c r="B52" s="162" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="191" t="s">
+      <c r="D52" s="136" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="176" t="s">
+      <c r="E52" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="121"/>
+      <c r="G52" s="120"/>
       <c r="H52" s="60"/>
       <c r="I52" s="60"/>
       <c r="J52" s="60"/>
@@ -8382,7 +8445,7 @@
       <c r="BS52" s="60"/>
       <c r="BT52" s="60"/>
       <c r="BU52" s="60"/>
-      <c r="BV52" s="173"/>
+      <c r="BV52" s="186"/>
       <c r="BW52" s="67"/>
       <c r="BX52" s="67"/>
       <c r="BY52" s="67"/>
@@ -8458,11 +8521,11 @@
       <c r="EQ52" s="68"/>
     </row>
     <row r="53" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="220"/>
-      <c r="B53" s="207"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="177"/>
-      <c r="G53" s="122"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="163"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="184"/>
+      <c r="G53" s="121"/>
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
       <c r="J53" s="62"/>
@@ -8529,7 +8592,7 @@
       <c r="BS53" s="62"/>
       <c r="BT53" s="62"/>
       <c r="BU53" s="62"/>
-      <c r="BV53" s="174"/>
+      <c r="BV53" s="187"/>
       <c r="BW53" s="69"/>
       <c r="BX53" s="69"/>
       <c r="BY53" s="69"/>
@@ -8605,11 +8668,11 @@
       <c r="EQ53" s="70"/>
     </row>
     <row r="54" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="220"/>
-      <c r="B54" s="207"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="177"/>
-      <c r="G54" s="122"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="163"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="184"/>
+      <c r="G54" s="121"/>
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
       <c r="J54" s="62"/>
@@ -8676,7 +8739,7 @@
       <c r="BS54" s="62"/>
       <c r="BT54" s="62"/>
       <c r="BU54" s="62"/>
-      <c r="BV54" s="174"/>
+      <c r="BV54" s="187"/>
       <c r="BW54" s="69"/>
       <c r="BX54" s="69"/>
       <c r="BY54" s="69"/>
@@ -8752,11 +8815,11 @@
       <c r="EQ54" s="70"/>
     </row>
     <row r="55" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="220"/>
-      <c r="B55" s="207"/>
-      <c r="D55" s="192"/>
-      <c r="E55" s="177"/>
-      <c r="G55" s="123"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="163"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="184"/>
+      <c r="G55" s="122"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
@@ -8823,7 +8886,7 @@
       <c r="BS55" s="27"/>
       <c r="BT55" s="27"/>
       <c r="BU55" s="27"/>
-      <c r="BV55" s="175"/>
+      <c r="BV55" s="188"/>
       <c r="BW55" s="71"/>
       <c r="BX55" s="71"/>
       <c r="BY55" s="71"/>
@@ -8899,14 +8962,14 @@
       <c r="EQ55" s="72"/>
     </row>
     <row r="56" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="221" t="s">
+      <c r="A56" s="170" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="207"/>
-      <c r="D56" s="193" t="s">
+      <c r="B56" s="163"/>
+      <c r="D56" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="177"/>
+      <c r="E56" s="184"/>
       <c r="G56" s="73"/>
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
@@ -9050,10 +9113,10 @@
       <c r="EQ56" s="68"/>
     </row>
     <row r="57" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="222"/>
-      <c r="B57" s="207"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="177"/>
+      <c r="A57" s="171"/>
+      <c r="B57" s="163"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="184"/>
       <c r="G57" s="74"/>
       <c r="H57" s="69"/>
       <c r="I57" s="69"/>
@@ -9197,10 +9260,10 @@
       <c r="EQ57" s="70"/>
     </row>
     <row r="58" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="222"/>
-      <c r="B58" s="207"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="177"/>
+      <c r="A58" s="171"/>
+      <c r="B58" s="163"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="184"/>
       <c r="G58" s="74"/>
       <c r="H58" s="69"/>
       <c r="I58" s="69"/>
@@ -9344,10 +9407,10 @@
       <c r="EQ58" s="70"/>
     </row>
     <row r="59" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
-      <c r="B59" s="207"/>
-      <c r="D59" s="192"/>
-      <c r="E59" s="177"/>
+      <c r="A59" s="173"/>
+      <c r="B59" s="163"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="184"/>
       <c r="G59" s="75"/>
       <c r="H59" s="71"/>
       <c r="I59" s="71"/>
@@ -9491,14 +9554,14 @@
       <c r="EQ59" s="72"/>
     </row>
     <row r="60" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="221" t="s">
+      <c r="A60" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="207"/>
-      <c r="D60" s="193" t="s">
+      <c r="B60" s="163"/>
+      <c r="D60" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="177"/>
+      <c r="E60" s="184"/>
       <c r="G60" s="73"/>
       <c r="H60" s="67"/>
       <c r="I60" s="67"/>
@@ -9565,7 +9628,7 @@
       <c r="BR60" s="67"/>
       <c r="BS60" s="67"/>
       <c r="BT60" s="67"/>
-      <c r="BU60" s="173"/>
+      <c r="BU60" s="186"/>
       <c r="BV60" s="60"/>
       <c r="BW60" s="60"/>
       <c r="BX60" s="60"/>
@@ -9642,10 +9705,10 @@
       <c r="EQ60" s="6"/>
     </row>
     <row r="61" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="222"/>
-      <c r="B61" s="207"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="177"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="163"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="184"/>
       <c r="G61" s="74"/>
       <c r="H61" s="69"/>
       <c r="I61" s="69"/>
@@ -9712,7 +9775,7 @@
       <c r="BR61" s="69"/>
       <c r="BS61" s="69"/>
       <c r="BT61" s="69"/>
-      <c r="BU61" s="174"/>
+      <c r="BU61" s="187"/>
       <c r="BV61" s="62"/>
       <c r="BW61" s="62"/>
       <c r="BX61" s="62"/>
@@ -9789,10 +9852,10 @@
       <c r="EQ61" s="63"/>
     </row>
     <row r="62" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="222"/>
-      <c r="B62" s="207"/>
-      <c r="D62" s="191"/>
-      <c r="E62" s="177"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="163"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="184"/>
       <c r="G62" s="74"/>
       <c r="H62" s="69"/>
       <c r="I62" s="69"/>
@@ -9859,7 +9922,7 @@
       <c r="BR62" s="69"/>
       <c r="BS62" s="69"/>
       <c r="BT62" s="69"/>
-      <c r="BU62" s="174"/>
+      <c r="BU62" s="187"/>
       <c r="BV62" s="62"/>
       <c r="BW62" s="62"/>
       <c r="BX62" s="62"/>
@@ -9936,10 +9999,10 @@
       <c r="EQ62" s="63"/>
     </row>
     <row r="63" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="223"/>
-      <c r="B63" s="208"/>
-      <c r="D63" s="200"/>
-      <c r="E63" s="178"/>
+      <c r="A63" s="172"/>
+      <c r="B63" s="164"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="185"/>
       <c r="G63" s="75"/>
       <c r="H63" s="71"/>
       <c r="I63" s="71"/>
@@ -10006,7 +10069,7 @@
       <c r="BR63" s="71"/>
       <c r="BS63" s="71"/>
       <c r="BT63" s="71"/>
-      <c r="BU63" s="175"/>
+      <c r="BU63" s="188"/>
       <c r="BV63" s="27"/>
       <c r="BW63" s="27"/>
       <c r="BX63" s="27"/>
@@ -10083,17 +10146,17 @@
       <c r="EQ63" s="28"/>
     </row>
     <row r="64" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="209" t="s">
+      <c r="A64" s="165" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="213" t="s">
+      <c r="B64" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="201" t="s">
+      <c r="D64" s="157" t="s">
         <v>194</v>
       </c>
       <c r="E64" s="90"/>
-      <c r="G64" s="181" t="s">
+      <c r="G64" s="174" t="s">
         <v>217</v>
       </c>
       <c r="H64" s="59"/>
@@ -10203,7 +10266,7 @@
       <c r="DH64" s="60"/>
       <c r="DI64" s="60"/>
       <c r="DJ64" s="60"/>
-      <c r="DL64" s="131" t="s">
+      <c r="DL64" s="235" t="s">
         <v>369</v>
       </c>
       <c r="DM64" s="60"/>
@@ -10239,11 +10302,11 @@
       <c r="EQ64" s="6"/>
     </row>
     <row r="65" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="203"/>
-      <c r="B65" s="214"/>
-      <c r="D65" s="202"/>
+      <c r="A65" s="159"/>
+      <c r="B65" s="132"/>
+      <c r="D65" s="158"/>
       <c r="E65" s="91"/>
-      <c r="G65" s="181"/>
+      <c r="G65" s="174"/>
       <c r="H65" s="61"/>
       <c r="I65" s="62"/>
       <c r="J65" s="62"/>
@@ -10351,7 +10414,7 @@
       <c r="DH65" s="62"/>
       <c r="DI65" s="62"/>
       <c r="DJ65" s="62"/>
-      <c r="DL65" s="132"/>
+      <c r="DL65" s="236"/>
       <c r="DM65" s="62"/>
       <c r="DN65" s="62"/>
       <c r="DO65" s="62"/>
@@ -10385,11 +10448,11 @@
       <c r="EQ65" s="63"/>
     </row>
     <row r="66" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="203"/>
-      <c r="B66" s="214"/>
-      <c r="D66" s="202"/>
+      <c r="A66" s="159"/>
+      <c r="B66" s="132"/>
+      <c r="D66" s="158"/>
       <c r="E66" s="91"/>
-      <c r="G66" s="181"/>
+      <c r="G66" s="174"/>
       <c r="H66" s="61"/>
       <c r="I66" s="62"/>
       <c r="J66" s="62"/>
@@ -10497,7 +10560,7 @@
       <c r="DH66" s="62"/>
       <c r="DI66" s="62"/>
       <c r="DJ66" s="62"/>
-      <c r="DL66" s="132"/>
+      <c r="DL66" s="236"/>
       <c r="DM66" s="62"/>
       <c r="DN66" s="62"/>
       <c r="DO66" s="62"/>
@@ -10531,11 +10594,11 @@
       <c r="EQ66" s="63"/>
     </row>
     <row r="67" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="203"/>
-      <c r="B67" s="214"/>
-      <c r="D67" s="202"/>
+      <c r="A67" s="159"/>
+      <c r="B67" s="132"/>
+      <c r="D67" s="158"/>
       <c r="E67" s="91"/>
-      <c r="G67" s="181"/>
+      <c r="G67" s="174"/>
       <c r="H67" s="3"/>
       <c r="I67" s="27"/>
       <c r="J67" s="27"/>
@@ -10644,7 +10707,7 @@
       <c r="DI67" s="27"/>
       <c r="DJ67" s="27"/>
       <c r="DK67" s="27"/>
-      <c r="DL67" s="133"/>
+      <c r="DL67" s="237"/>
       <c r="DM67" s="27"/>
       <c r="DN67" s="27"/>
       <c r="DO67" s="27"/>
@@ -10681,7 +10744,7 @@
       <c r="A68" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="214"/>
+      <c r="B68" s="132"/>
       <c r="D68" s="87" t="s">
         <v>154</v>
       </c>
@@ -10689,7 +10752,7 @@
       <c r="G68" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="EQ68" s="129" t="s">
+      <c r="EQ68" s="233" t="s">
         <v>368</v>
       </c>
     </row>
@@ -10697,7 +10760,7 @@
       <c r="A69" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="214"/>
+      <c r="B69" s="132"/>
       <c r="D69" s="88" t="s">
         <v>154</v>
       </c>
@@ -10705,13 +10768,13 @@
       <c r="G69" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="EQ69" s="128"/>
+      <c r="EQ69" s="232"/>
     </row>
     <row r="70" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="214"/>
+      <c r="B70" s="132"/>
       <c r="D70" s="88" t="s">
         <v>154</v>
       </c>
@@ -10719,24 +10782,24 @@
       <c r="G70" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="EQ70" s="128"/>
+      <c r="EQ70" s="232"/>
     </row>
     <row r="71" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="86"/>
-      <c r="B71" s="214"/>
+      <c r="B71" s="132"/>
       <c r="D71" s="89"/>
       <c r="E71" s="91"/>
       <c r="G71" s="95"/>
-      <c r="EQ71" s="130"/>
+      <c r="EQ71" s="234"/>
     </row>
     <row r="72" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="210"/>
-      <c r="B72" s="214"/>
-      <c r="D72" s="202" t="s">
+      <c r="A72" s="166"/>
+      <c r="B72" s="132"/>
+      <c r="D72" s="158" t="s">
         <v>214</v>
       </c>
       <c r="E72" s="91"/>
-      <c r="G72" s="121"/>
+      <c r="G72" s="120"/>
       <c r="H72" s="60"/>
       <c r="I72" s="60"/>
       <c r="J72" s="60"/>
@@ -10879,11 +10942,11 @@
       <c r="EQ72" s="6"/>
     </row>
     <row r="73" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="211"/>
-      <c r="B73" s="214"/>
-      <c r="D73" s="202"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="132"/>
+      <c r="D73" s="158"/>
       <c r="E73" s="91"/>
-      <c r="G73" s="122"/>
+      <c r="G73" s="121"/>
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="62"/>
@@ -11026,11 +11089,11 @@
       <c r="EQ73" s="63"/>
     </row>
     <row r="74" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="211"/>
-      <c r="B74" s="214"/>
-      <c r="D74" s="202"/>
+      <c r="A74" s="148"/>
+      <c r="B74" s="132"/>
+      <c r="D74" s="158"/>
       <c r="E74" s="91"/>
-      <c r="G74" s="122"/>
+      <c r="G74" s="121"/>
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="62"/>
@@ -11173,11 +11236,11 @@
       <c r="EQ74" s="63"/>
     </row>
     <row r="75" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="212"/>
-      <c r="B75" s="215"/>
-      <c r="D75" s="205"/>
+      <c r="A75" s="167"/>
+      <c r="B75" s="133"/>
+      <c r="D75" s="161"/>
       <c r="E75" s="92"/>
-      <c r="G75" s="123"/>
+      <c r="G75" s="122"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="27"/>
@@ -11320,11 +11383,11 @@
       <c r="EQ75" s="28"/>
     </row>
     <row r="76" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="185"/>
-      <c r="B76" s="216" t="s">
+      <c r="A76" s="152"/>
+      <c r="B76" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="194" t="s">
+      <c r="D76" s="177" t="s">
         <v>215</v>
       </c>
       <c r="E76" s="90"/>
@@ -11471,9 +11534,9 @@
       <c r="EQ76" s="6"/>
     </row>
     <row r="77" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="186"/>
-      <c r="B77" s="217"/>
-      <c r="D77" s="195"/>
+      <c r="A77" s="142"/>
+      <c r="B77" s="145"/>
+      <c r="D77" s="178"/>
       <c r="E77" s="91"/>
       <c r="G77" s="94"/>
       <c r="H77" s="62"/>
@@ -11618,9 +11681,9 @@
       <c r="EQ77" s="63"/>
     </row>
     <row r="78" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="186"/>
-      <c r="B78" s="217"/>
-      <c r="D78" s="195"/>
+      <c r="A78" s="142"/>
+      <c r="B78" s="145"/>
+      <c r="D78" s="178"/>
       <c r="E78" s="91"/>
       <c r="G78" s="94"/>
       <c r="H78" s="62"/>
@@ -11765,9 +11828,9 @@
       <c r="EQ78" s="63"/>
     </row>
     <row r="79" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="186"/>
-      <c r="B79" s="217"/>
-      <c r="D79" s="195"/>
+      <c r="A79" s="142"/>
+      <c r="B79" s="145"/>
+      <c r="D79" s="178"/>
       <c r="E79" s="91"/>
       <c r="G79" s="94"/>
       <c r="H79" s="27"/>
@@ -11915,7 +11978,7 @@
       <c r="A80" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="217"/>
+      <c r="B80" s="145"/>
       <c r="C80" s="29"/>
       <c r="D80" s="81" t="s">
         <v>154</v>
@@ -12069,7 +12132,7 @@
       <c r="A81" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="217"/>
+      <c r="B81" s="145"/>
       <c r="C81" s="29"/>
       <c r="D81" s="82" t="s">
         <v>154</v>
@@ -12223,7 +12286,7 @@
       <c r="A82" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="217"/>
+      <c r="B82" s="145"/>
       <c r="C82" s="29"/>
       <c r="D82" s="82" t="s">
         <v>154</v>
@@ -12375,7 +12438,7 @@
     </row>
     <row r="83" spans="1:147" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="82"/>
-      <c r="B83" s="217"/>
+      <c r="B83" s="145"/>
       <c r="C83" s="29"/>
       <c r="D83" s="82"/>
       <c r="E83" s="91"/>
@@ -12522,9 +12585,9 @@
       <c r="EQ83" s="28"/>
     </row>
     <row r="84" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="188"/>
-      <c r="B84" s="217"/>
-      <c r="D84" s="188"/>
+      <c r="A84" s="141"/>
+      <c r="B84" s="145"/>
+      <c r="D84" s="141"/>
       <c r="E84" s="91"/>
       <c r="G84" s="59"/>
       <c r="H84" s="60"/>
@@ -12587,7 +12650,7 @@
       <c r="BM84" s="60"/>
       <c r="BN84" s="60"/>
       <c r="BO84" s="60"/>
-      <c r="BP84" s="157" t="s">
+      <c r="BP84" s="175" t="s">
         <v>364</v>
       </c>
       <c r="BQ84" s="60"/>
@@ -12671,9 +12734,9 @@
       <c r="EQ84" s="6"/>
     </row>
     <row r="85" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="186"/>
-      <c r="B85" s="217"/>
-      <c r="D85" s="186"/>
+      <c r="A85" s="142"/>
+      <c r="B85" s="145"/>
+      <c r="D85" s="142"/>
       <c r="E85" s="91"/>
       <c r="G85" s="61"/>
       <c r="H85" s="62"/>
@@ -12736,7 +12799,7 @@
       <c r="BM85" s="62"/>
       <c r="BN85" s="62"/>
       <c r="BO85" s="62"/>
-      <c r="BP85" s="187"/>
+      <c r="BP85" s="176"/>
       <c r="BQ85" s="62"/>
       <c r="BR85" s="62"/>
       <c r="BS85" s="62"/>
@@ -12818,9 +12881,9 @@
       <c r="EQ85" s="63"/>
     </row>
     <row r="86" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="186"/>
-      <c r="B86" s="217"/>
-      <c r="D86" s="186"/>
+      <c r="A86" s="142"/>
+      <c r="B86" s="145"/>
+      <c r="D86" s="142"/>
       <c r="E86" s="91"/>
       <c r="G86" s="61"/>
       <c r="H86" s="62"/>
@@ -12883,7 +12946,7 @@
       <c r="BM86" s="62"/>
       <c r="BN86" s="62"/>
       <c r="BO86" s="62"/>
-      <c r="BP86" s="187"/>
+      <c r="BP86" s="176"/>
       <c r="BQ86" s="62"/>
       <c r="BR86" s="62"/>
       <c r="BS86" s="62"/>
@@ -12965,9 +13028,9 @@
       <c r="EQ86" s="63"/>
     </row>
     <row r="87" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="189"/>
-      <c r="B87" s="217"/>
-      <c r="D87" s="189"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="145"/>
+      <c r="D87" s="153"/>
       <c r="E87" s="91"/>
       <c r="G87" s="3"/>
       <c r="H87" s="27"/>
@@ -13030,7 +13093,7 @@
       <c r="BM87" s="27"/>
       <c r="BN87" s="27"/>
       <c r="BO87" s="27"/>
-      <c r="BP87" s="187"/>
+      <c r="BP87" s="176"/>
       <c r="BQ87" s="27"/>
       <c r="BR87" s="27"/>
       <c r="BS87" s="27"/>
@@ -13112,11 +13175,11 @@
       <c r="EQ87" s="28"/>
     </row>
     <row r="88" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="188" t="s">
+      <c r="A88" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="B88" s="217"/>
-      <c r="D88" s="188" t="s">
+      <c r="B88" s="145"/>
+      <c r="D88" s="141" t="s">
         <v>193</v>
       </c>
       <c r="E88" s="91"/>
@@ -13208,7 +13271,7 @@
       <c r="CN88" s="60"/>
       <c r="CO88" s="60"/>
       <c r="CP88" s="60"/>
-      <c r="CQ88" s="137" t="s">
+      <c r="CQ88" s="192" t="s">
         <v>192</v>
       </c>
       <c r="CR88" s="60"/>
@@ -13230,7 +13293,7 @@
       <c r="DH88" s="60"/>
       <c r="DI88" s="60"/>
       <c r="DJ88" s="60"/>
-      <c r="DK88" s="125" t="s">
+      <c r="DK88" s="229" t="s">
         <v>366</v>
       </c>
       <c r="DL88" s="60"/>
@@ -13267,9 +13330,9 @@
       <c r="EQ88" s="6"/>
     </row>
     <row r="89" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="186"/>
-      <c r="B89" s="217"/>
-      <c r="D89" s="186"/>
+      <c r="A89" s="142"/>
+      <c r="B89" s="145"/>
+      <c r="D89" s="142"/>
       <c r="E89" s="91"/>
       <c r="G89" s="61"/>
       <c r="H89" s="62"/>
@@ -13338,14 +13401,14 @@
       <c r="BT89" s="62"/>
       <c r="BU89" s="62"/>
       <c r="BV89" s="62"/>
-      <c r="CQ89" s="138"/>
-      <c r="DK89" s="126"/>
+      <c r="CQ89" s="193"/>
+      <c r="DK89" s="230"/>
       <c r="EQ89" s="63"/>
     </row>
     <row r="90" spans="1:147" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="186"/>
-      <c r="B90" s="217"/>
-      <c r="D90" s="186"/>
+      <c r="A90" s="142"/>
+      <c r="B90" s="145"/>
+      <c r="D90" s="142"/>
       <c r="E90" s="91"/>
       <c r="G90" s="61"/>
       <c r="H90" s="62"/>
@@ -13414,14 +13477,14 @@
       <c r="BT90" s="62"/>
       <c r="BU90" s="62"/>
       <c r="BV90" s="62"/>
-      <c r="CQ90" s="138"/>
-      <c r="DK90" s="126"/>
+      <c r="CQ90" s="193"/>
+      <c r="DK90" s="230"/>
       <c r="EQ90" s="63"/>
     </row>
     <row r="91" spans="1:147" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="196"/>
-      <c r="B91" s="218"/>
-      <c r="D91" s="196"/>
+      <c r="A91" s="143"/>
+      <c r="B91" s="146"/>
+      <c r="D91" s="143"/>
       <c r="E91" s="92"/>
       <c r="G91" s="3"/>
       <c r="H91" s="27"/>
@@ -13511,7 +13574,7 @@
       <c r="CN91" s="27"/>
       <c r="CO91" s="27"/>
       <c r="CP91" s="27"/>
-      <c r="CQ91" s="139"/>
+      <c r="CQ91" s="194"/>
       <c r="CR91" s="27"/>
       <c r="CS91" s="27"/>
       <c r="CT91" s="27"/>
@@ -13531,7 +13594,7 @@
       <c r="DH91" s="27"/>
       <c r="DI91" s="27"/>
       <c r="DJ91" s="27"/>
-      <c r="DK91" s="127"/>
+      <c r="DK91" s="231"/>
       <c r="DL91" s="27"/>
       <c r="DM91" s="27"/>
       <c r="DN91" s="27"/>
@@ -13657,49 +13720,67 @@
     <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="CD3:CD7"/>
-    <mergeCell ref="CE3:CE7"/>
-    <mergeCell ref="CF3:CF7"/>
-    <mergeCell ref="CG3:CG7"/>
-    <mergeCell ref="CH3:CH7"/>
-    <mergeCell ref="CI3:CI7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="DK88:DK91"/>
+    <mergeCell ref="EQ48:EQ51"/>
+    <mergeCell ref="EQ68:EQ71"/>
+    <mergeCell ref="DL28:DL31"/>
+    <mergeCell ref="DL64:DL67"/>
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DJ3:DJ7"/>
+    <mergeCell ref="DH3:DH7"/>
+    <mergeCell ref="DI3:DI7"/>
+    <mergeCell ref="CQ88:CQ91"/>
+    <mergeCell ref="DM15:DN15"/>
+    <mergeCell ref="DM16:DN16"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="AG9:EQ9"/>
+    <mergeCell ref="AS11:EA11"/>
+    <mergeCell ref="DM10:EJ10"/>
+    <mergeCell ref="DT3:DT7"/>
+    <mergeCell ref="DU3:DU7"/>
+    <mergeCell ref="BV8:DA8"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="DK3:DK7"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DR3:DR7"/>
+    <mergeCell ref="DS3:DS7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="CR3:CR7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="BU60:BU63"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="DL3:DL7"/>
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="BV52:BV55"/>
+    <mergeCell ref="CB3:CB7"/>
+    <mergeCell ref="CC3:CC7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BZ3:BZ7"/>
+    <mergeCell ref="CA3:CA7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CJ3:CJ7"/>
+    <mergeCell ref="CK3:CK7"/>
+    <mergeCell ref="CL3:CL7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BV3:BV7"/>
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="E3:E51"/>
     <mergeCell ref="G28:G31"/>
@@ -13724,67 +13805,49 @@
     <mergeCell ref="BL3:BL7"/>
     <mergeCell ref="BM3:BM7"/>
     <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="E52:E63"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="BV52:BV55"/>
-    <mergeCell ref="CB3:CB7"/>
-    <mergeCell ref="CC3:CC7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BZ3:BZ7"/>
-    <mergeCell ref="CA3:CA7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CJ3:CJ7"/>
-    <mergeCell ref="CK3:CK7"/>
-    <mergeCell ref="CL3:CL7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="CQ88:CQ91"/>
-    <mergeCell ref="DM15:DN15"/>
-    <mergeCell ref="DM16:DN16"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="AG9:EQ9"/>
-    <mergeCell ref="AS11:EA11"/>
-    <mergeCell ref="DM10:EJ10"/>
-    <mergeCell ref="DT3:DT7"/>
-    <mergeCell ref="DU3:DU7"/>
-    <mergeCell ref="BV8:DA8"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="DK3:DK7"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DR3:DR7"/>
-    <mergeCell ref="DS3:DS7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="CR3:CR7"/>
-    <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="BU60:BU63"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="DL3:DL7"/>
-    <mergeCell ref="DK88:DK91"/>
-    <mergeCell ref="EQ48:EQ51"/>
-    <mergeCell ref="EQ68:EQ71"/>
-    <mergeCell ref="DL28:DL31"/>
-    <mergeCell ref="DL64:DL67"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="DF3:DF7"/>
-    <mergeCell ref="DM3:DM7"/>
-    <mergeCell ref="DJ3:DJ7"/>
-    <mergeCell ref="DH3:DH7"/>
-    <mergeCell ref="DI3:DI7"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="CD3:CD7"/>
+    <mergeCell ref="CE3:CE7"/>
+    <mergeCell ref="CF3:CF7"/>
+    <mergeCell ref="CG3:CG7"/>
+    <mergeCell ref="CH3:CH7"/>
+    <mergeCell ref="CI3:CI7"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" r:id="rId1"/>
@@ -13798,8 +13861,8 @@
   </sheetPr>
   <dimension ref="A1:EM177"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW19" sqref="AW19"/>
+    <sheetView topLeftCell="CW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13810,7 +13873,7 @@
     <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="69" width="9.7109375" style="114" customWidth="1"/>
+    <col min="7" max="69" width="9.7109375" style="113" customWidth="1"/>
     <col min="70" max="143" width="9.7109375" style="1" customWidth="1"/>
     <col min="144" max="16384" width="7.42578125" style="1"/>
   </cols>
@@ -13818,80 +13881,80 @@
     <row r="1" spans="1:143" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="56"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="112"/>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
-      <c r="BE1" s="112"/>
-      <c r="BF1" s="112"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="120"/>
-      <c r="BI1" s="120"/>
-      <c r="BJ1" s="120"/>
-      <c r="BK1" s="120"/>
-      <c r="BL1" s="119"/>
-      <c r="BM1" s="119"/>
-      <c r="BN1" s="119"/>
-      <c r="BO1" s="112"/>
-      <c r="BP1" s="112"/>
-      <c r="BQ1" s="112"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="111"/>
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="111"/>
+      <c r="BE1" s="111"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="111"/>
+      <c r="BH1" s="119"/>
+      <c r="BI1" s="119"/>
+      <c r="BJ1" s="119"/>
+      <c r="BK1" s="119"/>
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="118"/>
+      <c r="BN1" s="118"/>
+      <c r="BO1" s="111"/>
+      <c r="BP1" s="111"/>
+      <c r="BQ1" s="111"/>
     </row>
     <row r="2" spans="1:143" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="228" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="228"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="93" t="s">
         <v>219</v>
       </c>
@@ -14306,17 +14369,17 @@
       </c>
     </row>
     <row r="3" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="190" t="s">
+      <c r="C3" s="253"/>
+      <c r="D3" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="138" t="s">
         <v>153</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -14438,166 +14501,166 @@
       <c r="AY3" s="26"/>
       <c r="AZ3" s="11"/>
       <c r="BA3" s="26"/>
-      <c r="BB3" s="244" t="s">
+      <c r="BB3" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="BC3" s="141" t="s">
+      <c r="BC3" s="125" t="s">
         <v>231</v>
       </c>
-      <c r="BD3" s="141" t="s">
+      <c r="BD3" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="BE3" s="141" t="s">
+      <c r="BE3" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="BF3" s="141" t="s">
+      <c r="BF3" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="BG3" s="141" t="s">
+      <c r="BG3" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="BH3" s="141" t="s">
+      <c r="BH3" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="BI3" s="141" t="s">
+      <c r="BI3" s="125" t="s">
         <v>237</v>
       </c>
-      <c r="BJ3" s="141" t="s">
+      <c r="BJ3" s="125" t="s">
         <v>238</v>
       </c>
-      <c r="BK3" s="141" t="s">
+      <c r="BK3" s="125" t="s">
         <v>239</v>
       </c>
-      <c r="BL3" s="141" t="s">
+      <c r="BL3" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="BM3" s="141" t="s">
+      <c r="BM3" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="BN3" s="141" t="s">
+      <c r="BN3" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="BO3" s="141" t="s">
+      <c r="BO3" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="BP3" s="141" t="s">
+      <c r="BP3" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="BQ3" s="141" t="s">
+      <c r="BQ3" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="BR3" s="141" t="s">
+      <c r="BR3" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="BS3" s="141" t="s">
+      <c r="BS3" s="125" t="s">
         <v>247</v>
       </c>
-      <c r="BT3" s="141" t="s">
+      <c r="BT3" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="BU3" s="141" t="s">
+      <c r="BU3" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="BV3" s="141" t="s">
+      <c r="BV3" s="125" t="s">
         <v>250</v>
       </c>
-      <c r="BW3" s="141" t="s">
+      <c r="BW3" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="BX3" s="141" t="s">
+      <c r="BX3" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="BY3" s="143" t="s">
+      <c r="BY3" s="189" t="s">
         <v>253</v>
       </c>
-      <c r="BZ3" s="244" t="s">
+      <c r="BZ3" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="CA3" s="141" t="s">
+      <c r="CA3" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="CB3" s="141" t="s">
+      <c r="CB3" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="CC3" s="141" t="s">
+      <c r="CC3" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="CD3" s="141" t="s">
+      <c r="CD3" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="CE3" s="141" t="s">
+      <c r="CE3" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="CF3" s="141" t="s">
+      <c r="CF3" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="CG3" s="141" t="s">
+      <c r="CG3" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="CH3" s="141" t="s">
+      <c r="CH3" s="125" t="s">
         <v>261</v>
       </c>
-      <c r="CI3" s="141" t="s">
+      <c r="CI3" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="CJ3" s="141" t="s">
+      <c r="CJ3" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="CK3" s="141" t="s">
+      <c r="CK3" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="CL3" s="141" t="s">
+      <c r="CL3" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="CM3" s="141" t="s">
+      <c r="CM3" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="CN3" s="141" t="s">
+      <c r="CN3" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="CO3" s="141" t="s">
+      <c r="CO3" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="CP3" s="141" t="s">
+      <c r="CP3" s="125" t="s">
         <v>269</v>
       </c>
-      <c r="CQ3" s="141" t="s">
+      <c r="CQ3" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="CR3" s="141" t="s">
+      <c r="CR3" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="CS3" s="141" t="s">
+      <c r="CS3" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="CT3" s="141" t="s">
+      <c r="CT3" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="CU3" s="141" t="s">
+      <c r="CU3" s="125" t="s">
         <v>274</v>
       </c>
-      <c r="CV3" s="141" t="s">
+      <c r="CV3" s="125" t="s">
         <v>275</v>
       </c>
-      <c r="CW3" s="143" t="s">
+      <c r="CW3" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="CX3" s="225" t="s">
+      <c r="CX3" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="CY3" s="134" t="s">
+      <c r="CY3" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="CZ3" s="134" t="s">
+      <c r="CZ3" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="DA3" s="134" t="s">
+      <c r="DA3" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="DB3" s="134" t="s">
+      <c r="DB3" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="DC3" s="167" t="s">
+      <c r="DC3" s="217" t="s">
         <v>76</v>
       </c>
       <c r="DD3" s="247" t="s">
@@ -14606,34 +14669,34 @@
       <c r="DE3" s="250" t="s">
         <v>290</v>
       </c>
-      <c r="DF3" s="241" t="s">
+      <c r="DF3" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="DG3" s="170" t="s">
+      <c r="DG3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="DH3" s="235" t="s">
+      <c r="DH3" s="226" t="s">
         <v>359</v>
       </c>
-      <c r="DI3" s="238" t="s">
+      <c r="DI3" s="241" t="s">
         <v>360</v>
       </c>
       <c r="DJ3" s="40"/>
       <c r="DK3" s="4"/>
       <c r="DL3" s="10"/>
-      <c r="DM3" s="155" t="s">
+      <c r="DM3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DN3" s="155" t="s">
+      <c r="DN3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DO3" s="155" t="s">
+      <c r="DO3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DP3" s="155" t="s">
+      <c r="DP3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="DQ3" s="159" t="s">
+      <c r="DQ3" s="209" t="s">
         <v>3</v>
       </c>
       <c r="DR3" s="43"/>
@@ -14672,11 +14735,11 @@
       </c>
     </row>
     <row r="4" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="183"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="139"/>
       <c r="G4" s="25" t="s">
         <v>40</v>
       </c>
@@ -14795,81 +14858,81 @@
       <c r="AT4" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="AU4" s="113"/>
-      <c r="AV4" s="113"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="112"/>
       <c r="AW4" s="7"/>
       <c r="AX4" s="41"/>
       <c r="AY4" s="21"/>
-      <c r="AZ4" s="113"/>
+      <c r="AZ4" s="112"/>
       <c r="BA4" s="21"/>
-      <c r="BB4" s="245"/>
-      <c r="BC4" s="142"/>
-      <c r="BD4" s="142"/>
-      <c r="BE4" s="142"/>
-      <c r="BF4" s="142"/>
-      <c r="BG4" s="142"/>
-      <c r="BH4" s="142"/>
-      <c r="BI4" s="142"/>
-      <c r="BJ4" s="142"/>
-      <c r="BK4" s="142"/>
-      <c r="BL4" s="142"/>
-      <c r="BM4" s="142"/>
-      <c r="BN4" s="142"/>
-      <c r="BO4" s="142"/>
-      <c r="BP4" s="142"/>
-      <c r="BQ4" s="142"/>
-      <c r="BR4" s="142"/>
-      <c r="BS4" s="142"/>
-      <c r="BT4" s="142"/>
-      <c r="BU4" s="142"/>
-      <c r="BV4" s="142"/>
-      <c r="BW4" s="142"/>
-      <c r="BX4" s="142"/>
-      <c r="BY4" s="144"/>
-      <c r="BZ4" s="245"/>
-      <c r="CA4" s="142"/>
-      <c r="CB4" s="142"/>
-      <c r="CC4" s="142"/>
-      <c r="CD4" s="142"/>
-      <c r="CE4" s="142"/>
-      <c r="CF4" s="142"/>
-      <c r="CG4" s="142"/>
-      <c r="CH4" s="142"/>
-      <c r="CI4" s="142"/>
-      <c r="CJ4" s="142"/>
-      <c r="CK4" s="142"/>
-      <c r="CL4" s="142"/>
-      <c r="CM4" s="142"/>
-      <c r="CN4" s="142"/>
-      <c r="CO4" s="142"/>
-      <c r="CP4" s="142"/>
-      <c r="CQ4" s="142"/>
-      <c r="CR4" s="142"/>
-      <c r="CS4" s="142"/>
-      <c r="CT4" s="142"/>
-      <c r="CU4" s="142"/>
-      <c r="CV4" s="142"/>
-      <c r="CW4" s="144"/>
-      <c r="CX4" s="226"/>
-      <c r="CY4" s="135"/>
-      <c r="CZ4" s="135"/>
-      <c r="DA4" s="135"/>
-      <c r="DB4" s="135"/>
-      <c r="DC4" s="168"/>
+      <c r="BB4" s="129"/>
+      <c r="BC4" s="126"/>
+      <c r="BD4" s="126"/>
+      <c r="BE4" s="126"/>
+      <c r="BF4" s="126"/>
+      <c r="BG4" s="126"/>
+      <c r="BH4" s="126"/>
+      <c r="BI4" s="126"/>
+      <c r="BJ4" s="126"/>
+      <c r="BK4" s="126"/>
+      <c r="BL4" s="126"/>
+      <c r="BM4" s="126"/>
+      <c r="BN4" s="126"/>
+      <c r="BO4" s="126"/>
+      <c r="BP4" s="126"/>
+      <c r="BQ4" s="126"/>
+      <c r="BR4" s="126"/>
+      <c r="BS4" s="126"/>
+      <c r="BT4" s="126"/>
+      <c r="BU4" s="126"/>
+      <c r="BV4" s="126"/>
+      <c r="BW4" s="126"/>
+      <c r="BX4" s="126"/>
+      <c r="BY4" s="190"/>
+      <c r="BZ4" s="129"/>
+      <c r="CA4" s="126"/>
+      <c r="CB4" s="126"/>
+      <c r="CC4" s="126"/>
+      <c r="CD4" s="126"/>
+      <c r="CE4" s="126"/>
+      <c r="CF4" s="126"/>
+      <c r="CG4" s="126"/>
+      <c r="CH4" s="126"/>
+      <c r="CI4" s="126"/>
+      <c r="CJ4" s="126"/>
+      <c r="CK4" s="126"/>
+      <c r="CL4" s="126"/>
+      <c r="CM4" s="126"/>
+      <c r="CN4" s="126"/>
+      <c r="CO4" s="126"/>
+      <c r="CP4" s="126"/>
+      <c r="CQ4" s="126"/>
+      <c r="CR4" s="126"/>
+      <c r="CS4" s="126"/>
+      <c r="CT4" s="126"/>
+      <c r="CU4" s="126"/>
+      <c r="CV4" s="126"/>
+      <c r="CW4" s="190"/>
+      <c r="CX4" s="224"/>
+      <c r="CY4" s="239"/>
+      <c r="CZ4" s="239"/>
+      <c r="DA4" s="239"/>
+      <c r="DB4" s="239"/>
+      <c r="DC4" s="218"/>
       <c r="DD4" s="248"/>
       <c r="DE4" s="251"/>
-      <c r="DF4" s="242"/>
-      <c r="DG4" s="171"/>
-      <c r="DH4" s="236"/>
-      <c r="DI4" s="239"/>
+      <c r="DF4" s="245"/>
+      <c r="DG4" s="221"/>
+      <c r="DH4" s="227"/>
+      <c r="DI4" s="242"/>
       <c r="DJ4" s="34"/>
-      <c r="DK4" s="113"/>
+      <c r="DK4" s="112"/>
       <c r="DL4" s="7"/>
-      <c r="DM4" s="156"/>
-      <c r="DN4" s="156"/>
-      <c r="DO4" s="156"/>
-      <c r="DP4" s="156"/>
-      <c r="DQ4" s="160"/>
+      <c r="DM4" s="207"/>
+      <c r="DN4" s="207"/>
+      <c r="DO4" s="207"/>
+      <c r="DP4" s="207"/>
+      <c r="DQ4" s="210"/>
       <c r="DR4" s="39"/>
       <c r="DS4" s="22"/>
       <c r="DT4" s="22"/>
@@ -14898,11 +14961,11 @@
       </c>
     </row>
     <row r="5" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="183"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="139"/>
       <c r="G5" s="24" t="s">
         <v>80</v>
       </c>
@@ -14970,92 +15033,92 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="47"/>
       <c r="AI5" s="34"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
       <c r="AP5" s="41"/>
       <c r="AQ5" s="34"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
       <c r="AW5" s="7"/>
       <c r="AX5" s="41"/>
       <c r="AY5" s="21"/>
-      <c r="AZ5" s="113"/>
+      <c r="AZ5" s="112"/>
       <c r="BA5" s="21"/>
-      <c r="BB5" s="245"/>
-      <c r="BC5" s="142"/>
-      <c r="BD5" s="142"/>
-      <c r="BE5" s="142"/>
-      <c r="BF5" s="142"/>
-      <c r="BG5" s="142"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="142"/>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="142"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="142"/>
-      <c r="BO5" s="142"/>
-      <c r="BP5" s="142"/>
-      <c r="BQ5" s="142"/>
-      <c r="BR5" s="142"/>
-      <c r="BS5" s="142"/>
-      <c r="BT5" s="142"/>
-      <c r="BU5" s="142"/>
-      <c r="BV5" s="142"/>
-      <c r="BW5" s="142"/>
-      <c r="BX5" s="142"/>
-      <c r="BY5" s="144"/>
-      <c r="BZ5" s="245"/>
-      <c r="CA5" s="142"/>
-      <c r="CB5" s="142"/>
-      <c r="CC5" s="142"/>
-      <c r="CD5" s="142"/>
-      <c r="CE5" s="142"/>
-      <c r="CF5" s="142"/>
-      <c r="CG5" s="142"/>
-      <c r="CH5" s="142"/>
-      <c r="CI5" s="142"/>
-      <c r="CJ5" s="142"/>
-      <c r="CK5" s="142"/>
-      <c r="CL5" s="142"/>
-      <c r="CM5" s="142"/>
-      <c r="CN5" s="142"/>
-      <c r="CO5" s="142"/>
-      <c r="CP5" s="142"/>
-      <c r="CQ5" s="142"/>
-      <c r="CR5" s="142"/>
-      <c r="CS5" s="142"/>
-      <c r="CT5" s="142"/>
-      <c r="CU5" s="142"/>
-      <c r="CV5" s="142"/>
-      <c r="CW5" s="144"/>
-      <c r="CX5" s="226"/>
-      <c r="CY5" s="135"/>
-      <c r="CZ5" s="135"/>
-      <c r="DA5" s="135"/>
-      <c r="DB5" s="135"/>
-      <c r="DC5" s="168"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="126"/>
+      <c r="BD5" s="126"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="126"/>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="126"/>
+      <c r="BI5" s="126"/>
+      <c r="BJ5" s="126"/>
+      <c r="BK5" s="126"/>
+      <c r="BL5" s="126"/>
+      <c r="BM5" s="126"/>
+      <c r="BN5" s="126"/>
+      <c r="BO5" s="126"/>
+      <c r="BP5" s="126"/>
+      <c r="BQ5" s="126"/>
+      <c r="BR5" s="126"/>
+      <c r="BS5" s="126"/>
+      <c r="BT5" s="126"/>
+      <c r="BU5" s="126"/>
+      <c r="BV5" s="126"/>
+      <c r="BW5" s="126"/>
+      <c r="BX5" s="126"/>
+      <c r="BY5" s="190"/>
+      <c r="BZ5" s="129"/>
+      <c r="CA5" s="126"/>
+      <c r="CB5" s="126"/>
+      <c r="CC5" s="126"/>
+      <c r="CD5" s="126"/>
+      <c r="CE5" s="126"/>
+      <c r="CF5" s="126"/>
+      <c r="CG5" s="126"/>
+      <c r="CH5" s="126"/>
+      <c r="CI5" s="126"/>
+      <c r="CJ5" s="126"/>
+      <c r="CK5" s="126"/>
+      <c r="CL5" s="126"/>
+      <c r="CM5" s="126"/>
+      <c r="CN5" s="126"/>
+      <c r="CO5" s="126"/>
+      <c r="CP5" s="126"/>
+      <c r="CQ5" s="126"/>
+      <c r="CR5" s="126"/>
+      <c r="CS5" s="126"/>
+      <c r="CT5" s="126"/>
+      <c r="CU5" s="126"/>
+      <c r="CV5" s="126"/>
+      <c r="CW5" s="190"/>
+      <c r="CX5" s="224"/>
+      <c r="CY5" s="239"/>
+      <c r="CZ5" s="239"/>
+      <c r="DA5" s="239"/>
+      <c r="DB5" s="239"/>
+      <c r="DC5" s="218"/>
       <c r="DD5" s="248"/>
       <c r="DE5" s="251"/>
-      <c r="DF5" s="242"/>
-      <c r="DG5" s="171"/>
-      <c r="DH5" s="236"/>
-      <c r="DI5" s="239"/>
+      <c r="DF5" s="245"/>
+      <c r="DG5" s="221"/>
+      <c r="DH5" s="227"/>
+      <c r="DI5" s="242"/>
       <c r="DJ5" s="34"/>
-      <c r="DK5" s="113"/>
+      <c r="DK5" s="112"/>
       <c r="DL5" s="7"/>
-      <c r="DM5" s="156"/>
-      <c r="DN5" s="156"/>
-      <c r="DO5" s="156"/>
-      <c r="DP5" s="156"/>
-      <c r="DQ5" s="160"/>
+      <c r="DM5" s="207"/>
+      <c r="DN5" s="207"/>
+      <c r="DO5" s="207"/>
+      <c r="DP5" s="207"/>
+      <c r="DQ5" s="210"/>
       <c r="DR5" s="30" t="s">
         <v>78</v>
       </c>
@@ -15124,79 +15187,79 @@
       </c>
     </row>
     <row r="6" spans="1:143" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="183"/>
-      <c r="G6" s="109" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="139"/>
+      <c r="G6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="N6" s="109" t="s">
+      <c r="N6" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="109" t="s">
+      <c r="O6" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="110" t="s">
+      <c r="P6" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="111" t="s">
+      <c r="Q6" s="110" t="s">
         <v>104</v>
       </c>
       <c r="R6" s="41"/>
-      <c r="S6" s="111" t="s">
+      <c r="S6" s="110" t="s">
         <v>305</v>
       </c>
-      <c r="T6" s="109" t="s">
+      <c r="T6" s="108" t="s">
         <v>305</v>
       </c>
-      <c r="U6" s="109" t="s">
+      <c r="U6" s="108" t="s">
         <v>305</v>
       </c>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="108" t="s">
         <v>305</v>
       </c>
-      <c r="W6" s="109" t="s">
+      <c r="W6" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="X6" s="109" t="s">
+      <c r="X6" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="Y6" s="109" t="s">
+      <c r="Y6" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="Z6" s="110" t="s">
+      <c r="Z6" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="AA6" s="111" t="s">
+      <c r="AA6" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="AB6" s="109" t="s">
+      <c r="AB6" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="AC6" s="109" t="s">
+      <c r="AC6" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="AD6" s="109" t="s">
+      <c r="AD6" s="108" t="s">
         <v>304</v>
       </c>
       <c r="AE6" s="8"/>
@@ -15204,159 +15267,163 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="47"/>
       <c r="AI6" s="34"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="112"/>
       <c r="AP6" s="41"/>
       <c r="AQ6" s="34"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="112"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
       <c r="AW6" s="7"/>
       <c r="AX6" s="41"/>
       <c r="AY6" s="21"/>
-      <c r="AZ6" s="113"/>
+      <c r="AZ6" s="112"/>
       <c r="BA6" s="21"/>
-      <c r="BB6" s="245"/>
-      <c r="BC6" s="142"/>
-      <c r="BD6" s="142"/>
-      <c r="BE6" s="142"/>
-      <c r="BF6" s="142"/>
-      <c r="BG6" s="142"/>
-      <c r="BH6" s="142"/>
-      <c r="BI6" s="142"/>
-      <c r="BJ6" s="142"/>
-      <c r="BK6" s="142"/>
-      <c r="BL6" s="142"/>
-      <c r="BM6" s="142"/>
-      <c r="BN6" s="142"/>
-      <c r="BO6" s="142"/>
-      <c r="BP6" s="142"/>
-      <c r="BQ6" s="142"/>
-      <c r="BR6" s="142"/>
-      <c r="BS6" s="142"/>
-      <c r="BT6" s="142"/>
-      <c r="BU6" s="142"/>
-      <c r="BV6" s="142"/>
-      <c r="BW6" s="142"/>
-      <c r="BX6" s="142"/>
-      <c r="BY6" s="144"/>
-      <c r="BZ6" s="245"/>
-      <c r="CA6" s="142"/>
-      <c r="CB6" s="142"/>
-      <c r="CC6" s="142"/>
-      <c r="CD6" s="142"/>
-      <c r="CE6" s="142"/>
-      <c r="CF6" s="142"/>
-      <c r="CG6" s="142"/>
-      <c r="CH6" s="142"/>
-      <c r="CI6" s="142"/>
-      <c r="CJ6" s="142"/>
-      <c r="CK6" s="142"/>
-      <c r="CL6" s="142"/>
-      <c r="CM6" s="142"/>
-      <c r="CN6" s="142"/>
-      <c r="CO6" s="142"/>
-      <c r="CP6" s="142"/>
-      <c r="CQ6" s="142"/>
-      <c r="CR6" s="142"/>
-      <c r="CS6" s="142"/>
-      <c r="CT6" s="142"/>
-      <c r="CU6" s="142"/>
-      <c r="CV6" s="142"/>
-      <c r="CW6" s="144"/>
-      <c r="CX6" s="226"/>
-      <c r="CY6" s="135"/>
-      <c r="CZ6" s="135"/>
-      <c r="DA6" s="135"/>
-      <c r="DB6" s="135"/>
-      <c r="DC6" s="168"/>
+      <c r="BB6" s="129"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="126"/>
+      <c r="BI6" s="126"/>
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="126"/>
+      <c r="BR6" s="126"/>
+      <c r="BS6" s="126"/>
+      <c r="BT6" s="126"/>
+      <c r="BU6" s="126"/>
+      <c r="BV6" s="126"/>
+      <c r="BW6" s="126"/>
+      <c r="BX6" s="126"/>
+      <c r="BY6" s="190"/>
+      <c r="BZ6" s="129"/>
+      <c r="CA6" s="126"/>
+      <c r="CB6" s="126"/>
+      <c r="CC6" s="126"/>
+      <c r="CD6" s="126"/>
+      <c r="CE6" s="126"/>
+      <c r="CF6" s="126"/>
+      <c r="CG6" s="126"/>
+      <c r="CH6" s="126"/>
+      <c r="CI6" s="126"/>
+      <c r="CJ6" s="126"/>
+      <c r="CK6" s="126"/>
+      <c r="CL6" s="126"/>
+      <c r="CM6" s="126"/>
+      <c r="CN6" s="126"/>
+      <c r="CO6" s="126"/>
+      <c r="CP6" s="126"/>
+      <c r="CQ6" s="126"/>
+      <c r="CR6" s="126"/>
+      <c r="CS6" s="126"/>
+      <c r="CT6" s="126"/>
+      <c r="CU6" s="126"/>
+      <c r="CV6" s="126"/>
+      <c r="CW6" s="190"/>
+      <c r="CX6" s="224"/>
+      <c r="CY6" s="239"/>
+      <c r="CZ6" s="239"/>
+      <c r="DA6" s="239"/>
+      <c r="DB6" s="239"/>
+      <c r="DC6" s="218"/>
       <c r="DD6" s="248"/>
       <c r="DE6" s="251"/>
-      <c r="DF6" s="242"/>
-      <c r="DG6" s="171"/>
-      <c r="DH6" s="236"/>
-      <c r="DI6" s="239"/>
+      <c r="DF6" s="245"/>
+      <c r="DG6" s="221"/>
+      <c r="DH6" s="227"/>
+      <c r="DI6" s="242"/>
       <c r="DJ6" s="34"/>
-      <c r="DK6" s="113"/>
+      <c r="DK6" s="112"/>
       <c r="DL6" s="7"/>
-      <c r="DM6" s="157"/>
-      <c r="DN6" s="157"/>
-      <c r="DO6" s="157"/>
-      <c r="DP6" s="157"/>
-      <c r="DQ6" s="161"/>
+      <c r="DM6" s="175"/>
+      <c r="DN6" s="175"/>
+      <c r="DO6" s="175"/>
+      <c r="DP6" s="175"/>
+      <c r="DQ6" s="211"/>
       <c r="DR6" s="39"/>
       <c r="DS6" s="8"/>
       <c r="DT6" s="8"/>
       <c r="DU6" s="8"/>
-      <c r="DV6" s="109" t="s">
+      <c r="DV6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="DW6" s="109" t="s">
+      <c r="DW6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="DX6" s="109" t="s">
+      <c r="DX6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="DY6" s="110" t="s">
+      <c r="DY6" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="DZ6" s="111" t="s">
+      <c r="DZ6" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="EA6" s="109" t="s">
+      <c r="EA6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EB6" s="109" t="s">
+      <c r="EB6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="EC6" s="109" t="s">
+      <c r="EC6" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="ED6" s="109" t="s">
+      <c r="ED6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EE6" s="109" t="s">
+      <c r="EE6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EF6" s="109" t="s">
+      <c r="EF6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EG6" s="110" t="s">
+      <c r="EG6" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="EH6" s="111" t="s">
+      <c r="EH6" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="EI6" s="109" t="s">
+      <c r="EI6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EJ6" s="109" t="s">
+      <c r="EJ6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EK6" s="109" t="s">
+      <c r="EK6" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="EL6" s="109" t="s">
+      <c r="EL6" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="EM6" s="109" t="s">
+      <c r="EM6" s="108" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:143" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="192"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="183"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="139"/>
+      <c r="G7" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>282</v>
+      </c>
       <c r="I7" s="104" t="s">
         <v>279</v>
       </c>
@@ -15366,12 +15433,24 @@
       <c r="K7" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="108"/>
+      <c r="L7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="P7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q7" s="105" t="s">
+        <v>279</v>
+      </c>
       <c r="R7" s="41" t="s">
         <v>37</v>
       </c>
@@ -15384,11 +15463,21 @@
       <c r="U7" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="49"/>
+      <c r="V7" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="W7" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="X7" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y7" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z7" s="105" t="s">
+        <v>306</v>
+      </c>
       <c r="AA7" s="50"/>
       <c r="AB7" s="48"/>
       <c r="AC7" s="48"/>
@@ -15416,66 +15505,66 @@
       <c r="AY7" s="27"/>
       <c r="AZ7" s="23"/>
       <c r="BA7" s="27"/>
-      <c r="BB7" s="246"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179"/>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="179"/>
-      <c r="BM7" s="179"/>
-      <c r="BN7" s="179"/>
-      <c r="BO7" s="179"/>
-      <c r="BP7" s="179"/>
-      <c r="BQ7" s="179"/>
-      <c r="BR7" s="179"/>
-      <c r="BS7" s="179"/>
-      <c r="BT7" s="179"/>
-      <c r="BU7" s="179"/>
-      <c r="BV7" s="179"/>
-      <c r="BW7" s="179"/>
-      <c r="BX7" s="179"/>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="246"/>
-      <c r="CA7" s="179"/>
-      <c r="CB7" s="179"/>
-      <c r="CC7" s="179"/>
-      <c r="CD7" s="179"/>
-      <c r="CE7" s="179"/>
-      <c r="CF7" s="179"/>
-      <c r="CG7" s="179"/>
-      <c r="CH7" s="179"/>
-      <c r="CI7" s="179"/>
-      <c r="CJ7" s="179"/>
-      <c r="CK7" s="179"/>
-      <c r="CL7" s="179"/>
-      <c r="CM7" s="179"/>
-      <c r="CN7" s="179"/>
-      <c r="CO7" s="179"/>
-      <c r="CP7" s="179"/>
-      <c r="CQ7" s="179"/>
-      <c r="CR7" s="179"/>
-      <c r="CS7" s="179"/>
-      <c r="CT7" s="179"/>
-      <c r="CU7" s="179"/>
-      <c r="CV7" s="179"/>
-      <c r="CW7" s="180"/>
-      <c r="CX7" s="227"/>
-      <c r="CY7" s="136"/>
-      <c r="CZ7" s="136"/>
-      <c r="DA7" s="136"/>
-      <c r="DB7" s="136"/>
-      <c r="DC7" s="169"/>
+      <c r="BB7" s="182"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="127"/>
+      <c r="BE7" s="127"/>
+      <c r="BF7" s="127"/>
+      <c r="BG7" s="127"/>
+      <c r="BH7" s="127"/>
+      <c r="BI7" s="127"/>
+      <c r="BJ7" s="127"/>
+      <c r="BK7" s="127"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="127"/>
+      <c r="BN7" s="127"/>
+      <c r="BO7" s="127"/>
+      <c r="BP7" s="127"/>
+      <c r="BQ7" s="127"/>
+      <c r="BR7" s="127"/>
+      <c r="BS7" s="127"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="127"/>
+      <c r="BV7" s="127"/>
+      <c r="BW7" s="127"/>
+      <c r="BX7" s="127"/>
+      <c r="BY7" s="191"/>
+      <c r="BZ7" s="182"/>
+      <c r="CA7" s="127"/>
+      <c r="CB7" s="127"/>
+      <c r="CC7" s="127"/>
+      <c r="CD7" s="127"/>
+      <c r="CE7" s="127"/>
+      <c r="CF7" s="127"/>
+      <c r="CG7" s="127"/>
+      <c r="CH7" s="127"/>
+      <c r="CI7" s="127"/>
+      <c r="CJ7" s="127"/>
+      <c r="CK7" s="127"/>
+      <c r="CL7" s="127"/>
+      <c r="CM7" s="127"/>
+      <c r="CN7" s="127"/>
+      <c r="CO7" s="127"/>
+      <c r="CP7" s="127"/>
+      <c r="CQ7" s="127"/>
+      <c r="CR7" s="127"/>
+      <c r="CS7" s="127"/>
+      <c r="CT7" s="127"/>
+      <c r="CU7" s="127"/>
+      <c r="CV7" s="127"/>
+      <c r="CW7" s="191"/>
+      <c r="CX7" s="225"/>
+      <c r="CY7" s="240"/>
+      <c r="CZ7" s="240"/>
+      <c r="DA7" s="240"/>
+      <c r="DB7" s="240"/>
+      <c r="DC7" s="219"/>
       <c r="DD7" s="249"/>
       <c r="DE7" s="252"/>
-      <c r="DF7" s="243"/>
-      <c r="DG7" s="172"/>
-      <c r="DH7" s="237"/>
-      <c r="DI7" s="240"/>
+      <c r="DF7" s="246"/>
+      <c r="DG7" s="222"/>
+      <c r="DH7" s="228"/>
+      <c r="DI7" s="243"/>
       <c r="DJ7" s="104" t="s">
         <v>224</v>
       </c>
@@ -15485,11 +15574,11 @@
       <c r="DL7" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="DM7" s="158"/>
-      <c r="DN7" s="158"/>
-      <c r="DO7" s="158"/>
-      <c r="DP7" s="158"/>
-      <c r="DQ7" s="162"/>
+      <c r="DM7" s="208"/>
+      <c r="DN7" s="208"/>
+      <c r="DO7" s="208"/>
+      <c r="DP7" s="208"/>
+      <c r="DQ7" s="212"/>
       <c r="DR7" s="104" t="s">
         <v>227</v>
       </c>
@@ -15499,11 +15588,21 @@
       <c r="DT7" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="DU7" s="42"/>
-      <c r="DV7" s="48"/>
-      <c r="DW7" s="48"/>
-      <c r="DX7" s="48"/>
-      <c r="DY7" s="49"/>
+      <c r="DU7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="DV7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="DW7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="DX7" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY7" s="107" t="s">
+        <v>227</v>
+      </c>
       <c r="DZ7" s="104" t="s">
         <v>281</v>
       </c>
@@ -15513,11 +15612,21 @@
       <c r="EB7" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="EC7" s="48"/>
-      <c r="ED7" s="48"/>
-      <c r="EE7" s="48"/>
-      <c r="EF7" s="48"/>
-      <c r="EG7" s="49"/>
+      <c r="EC7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="ED7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="EE7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="EF7" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="EG7" s="107" t="s">
+        <v>281</v>
+      </c>
       <c r="EH7" s="104" t="s">
         <v>282</v>
       </c>
@@ -15527,49 +15636,55 @@
       <c r="EJ7" s="107" t="s">
         <v>282</v>
       </c>
-      <c r="EK7" s="48"/>
-      <c r="EL7" s="48"/>
-      <c r="EM7" s="48"/>
+      <c r="EK7" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="EL7" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="EM7" s="107" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="8" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="183"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="183"/>
-      <c r="BR8" s="254" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="139"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="139"/>
+      <c r="BR8" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="BS8" s="255"/>
-      <c r="BT8" s="255"/>
-      <c r="BU8" s="255"/>
-      <c r="BV8" s="255"/>
-      <c r="BW8" s="255"/>
-      <c r="BX8" s="255"/>
-      <c r="BY8" s="255"/>
-      <c r="BZ8" s="255"/>
-      <c r="CA8" s="255"/>
-      <c r="CB8" s="255"/>
-      <c r="CC8" s="255"/>
-      <c r="CD8" s="255"/>
-      <c r="CE8" s="255"/>
-      <c r="CF8" s="255"/>
-      <c r="CG8" s="255"/>
-      <c r="CH8" s="255"/>
-      <c r="CI8" s="255"/>
-      <c r="CJ8" s="255"/>
-      <c r="CK8" s="255"/>
-      <c r="CL8" s="255"/>
-      <c r="CM8" s="255"/>
-      <c r="CN8" s="255"/>
-      <c r="CO8" s="255"/>
-      <c r="CP8" s="255"/>
-      <c r="CQ8" s="255"/>
-      <c r="CR8" s="255"/>
-      <c r="CS8" s="255"/>
-      <c r="CT8" s="255"/>
-      <c r="CU8" s="255"/>
-      <c r="CV8" s="255"/>
-      <c r="CW8" s="255"/>
+      <c r="BS8" s="259"/>
+      <c r="BT8" s="259"/>
+      <c r="BU8" s="259"/>
+      <c r="BV8" s="259"/>
+      <c r="BW8" s="259"/>
+      <c r="BX8" s="259"/>
+      <c r="BY8" s="259"/>
+      <c r="BZ8" s="259"/>
+      <c r="CA8" s="259"/>
+      <c r="CB8" s="259"/>
+      <c r="CC8" s="259"/>
+      <c r="CD8" s="259"/>
+      <c r="CE8" s="259"/>
+      <c r="CF8" s="259"/>
+      <c r="CG8" s="259"/>
+      <c r="CH8" s="259"/>
+      <c r="CI8" s="259"/>
+      <c r="CJ8" s="259"/>
+      <c r="CK8" s="259"/>
+      <c r="CL8" s="259"/>
+      <c r="CM8" s="259"/>
+      <c r="CN8" s="259"/>
+      <c r="CO8" s="259"/>
+      <c r="CP8" s="259"/>
+      <c r="CQ8" s="259"/>
+      <c r="CR8" s="259"/>
+      <c r="CS8" s="259"/>
+      <c r="CT8" s="259"/>
+      <c r="CU8" s="259"/>
+      <c r="CV8" s="259"/>
+      <c r="CW8" s="259"/>
       <c r="CX8" s="20"/>
       <c r="CY8" s="20"/>
       <c r="CZ8" s="20"/>
@@ -15578,129 +15693,129 @@
       <c r="DC8" s="20"/>
     </row>
     <row r="9" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
-      <c r="B9" s="183"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="183"/>
-      <c r="AG9" s="257" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="139"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="139"/>
+      <c r="AG9" s="254" t="s">
         <v>365</v>
       </c>
-      <c r="AH9" s="258"/>
-      <c r="AI9" s="258"/>
-      <c r="AJ9" s="258"/>
-      <c r="AK9" s="258"/>
-      <c r="AL9" s="258"/>
-      <c r="AM9" s="258"/>
-      <c r="AN9" s="258"/>
-      <c r="AO9" s="258"/>
-      <c r="AP9" s="258"/>
-      <c r="AQ9" s="258"/>
-      <c r="AR9" s="258"/>
-      <c r="AS9" s="258"/>
-      <c r="AT9" s="258"/>
-      <c r="AU9" s="258"/>
-      <c r="AV9" s="258"/>
-      <c r="AW9" s="258"/>
-      <c r="AX9" s="258"/>
-      <c r="AY9" s="258"/>
-      <c r="AZ9" s="258"/>
-      <c r="BA9" s="258"/>
-      <c r="BB9" s="258"/>
-      <c r="BC9" s="258"/>
-      <c r="BD9" s="258"/>
-      <c r="BE9" s="258"/>
-      <c r="BF9" s="258"/>
-      <c r="BG9" s="258"/>
-      <c r="BH9" s="258"/>
-      <c r="BI9" s="258"/>
-      <c r="BJ9" s="258"/>
-      <c r="BK9" s="258"/>
-      <c r="BL9" s="258"/>
-      <c r="BM9" s="258"/>
-      <c r="BN9" s="258"/>
-      <c r="BO9" s="258"/>
-      <c r="BP9" s="258"/>
-      <c r="BQ9" s="258"/>
-      <c r="BR9" s="258"/>
-      <c r="BS9" s="258"/>
-      <c r="BT9" s="258"/>
-      <c r="BU9" s="258"/>
-      <c r="BV9" s="258"/>
-      <c r="BW9" s="258"/>
-      <c r="BX9" s="258"/>
-      <c r="BY9" s="258"/>
-      <c r="BZ9" s="258"/>
-      <c r="CA9" s="258"/>
-      <c r="CB9" s="258"/>
-      <c r="CC9" s="258"/>
-      <c r="CD9" s="258"/>
-      <c r="CE9" s="258"/>
-      <c r="CF9" s="258"/>
-      <c r="CG9" s="258"/>
-      <c r="CH9" s="258"/>
-      <c r="CI9" s="258"/>
-      <c r="CJ9" s="258"/>
-      <c r="CK9" s="258"/>
-      <c r="CL9" s="258"/>
-      <c r="CM9" s="258"/>
-      <c r="CN9" s="258"/>
-      <c r="CO9" s="258"/>
-      <c r="CP9" s="258"/>
-      <c r="CQ9" s="258"/>
-      <c r="CR9" s="258"/>
-      <c r="CS9" s="258"/>
-      <c r="CT9" s="258"/>
-      <c r="CU9" s="258"/>
-      <c r="CV9" s="258"/>
-      <c r="CW9" s="258"/>
-      <c r="CX9" s="258"/>
-      <c r="CY9" s="258"/>
-      <c r="CZ9" s="258"/>
-      <c r="DA9" s="258"/>
-      <c r="DB9" s="258"/>
-      <c r="DC9" s="258"/>
-      <c r="DD9" s="258"/>
-      <c r="DE9" s="258"/>
-      <c r="DF9" s="258"/>
-      <c r="DG9" s="258"/>
-      <c r="DH9" s="258"/>
-      <c r="DI9" s="258"/>
-      <c r="DJ9" s="258"/>
-      <c r="DK9" s="258"/>
-      <c r="DL9" s="258"/>
-      <c r="DM9" s="258"/>
-      <c r="DN9" s="258"/>
-      <c r="DO9" s="258"/>
-      <c r="DP9" s="258"/>
-      <c r="DQ9" s="258"/>
-      <c r="DR9" s="258"/>
-      <c r="DS9" s="258"/>
-      <c r="DT9" s="258"/>
-      <c r="DU9" s="258"/>
-      <c r="DV9" s="258"/>
-      <c r="DW9" s="258"/>
-      <c r="DX9" s="258"/>
-      <c r="DY9" s="258"/>
-      <c r="DZ9" s="258"/>
-      <c r="EA9" s="258"/>
-      <c r="EB9" s="258"/>
-      <c r="EC9" s="258"/>
-      <c r="ED9" s="258"/>
-      <c r="EE9" s="258"/>
-      <c r="EF9" s="258"/>
-      <c r="EG9" s="258"/>
-      <c r="EH9" s="258"/>
-      <c r="EI9" s="258"/>
-      <c r="EJ9" s="258"/>
-      <c r="EK9" s="258"/>
-      <c r="EL9" s="258"/>
-      <c r="EM9" s="259"/>
+      <c r="AH9" s="255"/>
+      <c r="AI9" s="255"/>
+      <c r="AJ9" s="255"/>
+      <c r="AK9" s="255"/>
+      <c r="AL9" s="255"/>
+      <c r="AM9" s="255"/>
+      <c r="AN9" s="255"/>
+      <c r="AO9" s="255"/>
+      <c r="AP9" s="255"/>
+      <c r="AQ9" s="255"/>
+      <c r="AR9" s="255"/>
+      <c r="AS9" s="255"/>
+      <c r="AT9" s="255"/>
+      <c r="AU9" s="255"/>
+      <c r="AV9" s="255"/>
+      <c r="AW9" s="255"/>
+      <c r="AX9" s="255"/>
+      <c r="AY9" s="255"/>
+      <c r="AZ9" s="255"/>
+      <c r="BA9" s="255"/>
+      <c r="BB9" s="255"/>
+      <c r="BC9" s="255"/>
+      <c r="BD9" s="255"/>
+      <c r="BE9" s="255"/>
+      <c r="BF9" s="255"/>
+      <c r="BG9" s="255"/>
+      <c r="BH9" s="255"/>
+      <c r="BI9" s="255"/>
+      <c r="BJ9" s="255"/>
+      <c r="BK9" s="255"/>
+      <c r="BL9" s="255"/>
+      <c r="BM9" s="255"/>
+      <c r="BN9" s="255"/>
+      <c r="BO9" s="255"/>
+      <c r="BP9" s="255"/>
+      <c r="BQ9" s="255"/>
+      <c r="BR9" s="255"/>
+      <c r="BS9" s="255"/>
+      <c r="BT9" s="255"/>
+      <c r="BU9" s="255"/>
+      <c r="BV9" s="255"/>
+      <c r="BW9" s="255"/>
+      <c r="BX9" s="255"/>
+      <c r="BY9" s="255"/>
+      <c r="BZ9" s="255"/>
+      <c r="CA9" s="255"/>
+      <c r="CB9" s="255"/>
+      <c r="CC9" s="255"/>
+      <c r="CD9" s="255"/>
+      <c r="CE9" s="255"/>
+      <c r="CF9" s="255"/>
+      <c r="CG9" s="255"/>
+      <c r="CH9" s="255"/>
+      <c r="CI9" s="255"/>
+      <c r="CJ9" s="255"/>
+      <c r="CK9" s="255"/>
+      <c r="CL9" s="255"/>
+      <c r="CM9" s="255"/>
+      <c r="CN9" s="255"/>
+      <c r="CO9" s="255"/>
+      <c r="CP9" s="255"/>
+      <c r="CQ9" s="255"/>
+      <c r="CR9" s="255"/>
+      <c r="CS9" s="255"/>
+      <c r="CT9" s="255"/>
+      <c r="CU9" s="255"/>
+      <c r="CV9" s="255"/>
+      <c r="CW9" s="255"/>
+      <c r="CX9" s="255"/>
+      <c r="CY9" s="255"/>
+      <c r="CZ9" s="255"/>
+      <c r="DA9" s="255"/>
+      <c r="DB9" s="255"/>
+      <c r="DC9" s="255"/>
+      <c r="DD9" s="255"/>
+      <c r="DE9" s="255"/>
+      <c r="DF9" s="255"/>
+      <c r="DG9" s="255"/>
+      <c r="DH9" s="255"/>
+      <c r="DI9" s="255"/>
+      <c r="DJ9" s="255"/>
+      <c r="DK9" s="255"/>
+      <c r="DL9" s="255"/>
+      <c r="DM9" s="255"/>
+      <c r="DN9" s="255"/>
+      <c r="DO9" s="255"/>
+      <c r="DP9" s="255"/>
+      <c r="DQ9" s="255"/>
+      <c r="DR9" s="255"/>
+      <c r="DS9" s="255"/>
+      <c r="DT9" s="255"/>
+      <c r="DU9" s="255"/>
+      <c r="DV9" s="255"/>
+      <c r="DW9" s="255"/>
+      <c r="DX9" s="255"/>
+      <c r="DY9" s="255"/>
+      <c r="DZ9" s="255"/>
+      <c r="EA9" s="255"/>
+      <c r="EB9" s="255"/>
+      <c r="EC9" s="255"/>
+      <c r="ED9" s="255"/>
+      <c r="EE9" s="255"/>
+      <c r="EF9" s="255"/>
+      <c r="EG9" s="255"/>
+      <c r="EH9" s="255"/>
+      <c r="EI9" s="255"/>
+      <c r="EJ9" s="255"/>
+      <c r="EK9" s="255"/>
+      <c r="EL9" s="255"/>
+      <c r="EM9" s="256"/>
     </row>
     <row r="10" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="191"/>
-      <c r="B10" s="183"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="183"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="139"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>147</v>
       </c>
@@ -15708,38 +15823,38 @@
         <v>114</v>
       </c>
       <c r="BB10" s="62"/>
-      <c r="DI10" s="253" t="s">
+      <c r="DI10" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="DJ10" s="253"/>
-      <c r="DK10" s="253"/>
-      <c r="DL10" s="253"/>
-      <c r="DM10" s="253"/>
-      <c r="DN10" s="253"/>
-      <c r="DO10" s="253"/>
-      <c r="DP10" s="253"/>
-      <c r="DQ10" s="253"/>
-      <c r="DR10" s="253"/>
-      <c r="DS10" s="253"/>
-      <c r="DT10" s="253"/>
-      <c r="DU10" s="253"/>
-      <c r="DV10" s="253"/>
-      <c r="DW10" s="253"/>
-      <c r="DX10" s="253"/>
-      <c r="DY10" s="253"/>
-      <c r="DZ10" s="253"/>
-      <c r="EA10" s="253"/>
-      <c r="EB10" s="253"/>
-      <c r="EC10" s="253"/>
-      <c r="ED10" s="253"/>
-      <c r="EE10" s="253"/>
-      <c r="EF10" s="253"/>
+      <c r="DJ10" s="257"/>
+      <c r="DK10" s="257"/>
+      <c r="DL10" s="257"/>
+      <c r="DM10" s="257"/>
+      <c r="DN10" s="257"/>
+      <c r="DO10" s="257"/>
+      <c r="DP10" s="257"/>
+      <c r="DQ10" s="257"/>
+      <c r="DR10" s="257"/>
+      <c r="DS10" s="257"/>
+      <c r="DT10" s="257"/>
+      <c r="DU10" s="257"/>
+      <c r="DV10" s="257"/>
+      <c r="DW10" s="257"/>
+      <c r="DX10" s="257"/>
+      <c r="DY10" s="257"/>
+      <c r="DZ10" s="257"/>
+      <c r="EA10" s="257"/>
+      <c r="EB10" s="257"/>
+      <c r="EC10" s="257"/>
+      <c r="ED10" s="257"/>
+      <c r="EE10" s="257"/>
+      <c r="EF10" s="257"/>
     </row>
     <row r="11" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="183"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="183"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="139"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="139"/>
       <c r="I11" s="57" t="s">
         <v>146</v>
       </c>
@@ -15751,11 +15866,11 @@
       <c r="A12" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="183"/>
+      <c r="B12" s="139"/>
       <c r="D12" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="183"/>
+      <c r="E12" s="139"/>
       <c r="I12" s="103" t="s">
         <v>226</v>
       </c>
@@ -15767,11 +15882,11 @@
       <c r="A13" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="183"/>
+      <c r="B13" s="139"/>
       <c r="D13" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="183"/>
+      <c r="E13" s="139"/>
       <c r="I13" s="16" t="s">
         <v>70</v>
       </c>
@@ -15783,11 +15898,11 @@
       <c r="A14" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="183"/>
+      <c r="B14" s="139"/>
       <c r="D14" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="183"/>
+      <c r="E14" s="139"/>
       <c r="I14" s="17" t="s">
         <v>71</v>
       </c>
@@ -15797,10 +15912,10 @@
     </row>
     <row r="15" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
-      <c r="B15" s="183"/>
+      <c r="B15" s="139"/>
       <c r="D15" s="79"/>
-      <c r="E15" s="183"/>
-      <c r="I15" s="118" t="s">
+      <c r="E15" s="139"/>
+      <c r="I15" s="117" t="s">
         <v>361</v>
       </c>
       <c r="J15" s="13" t="s">
@@ -15808,10 +15923,10 @@
       </c>
     </row>
     <row r="16" spans="1:143" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="183"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="183"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="139"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="139"/>
       <c r="I16" s="19" t="s">
         <v>145</v>
       </c>
@@ -15820,10 +15935,10 @@
       </c>
     </row>
     <row r="17" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
-      <c r="B17" s="183"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="183"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="139"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="139"/>
       <c r="I17" s="14" t="s">
         <v>277</v>
       </c>
@@ -15832,11 +15947,11 @@
       </c>
     </row>
     <row r="18" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
-      <c r="B18" s="183"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="183"/>
-      <c r="I18" s="115" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="139"/>
+      <c r="I18" s="114" t="s">
         <v>292</v>
       </c>
       <c r="J18" s="13" t="s">
@@ -15844,10 +15959,10 @@
       </c>
     </row>
     <row r="19" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="192"/>
-      <c r="B19" s="183"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="183"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="139"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="139"/>
       <c r="I19" s="15" t="s">
         <v>1</v>
       </c>
@@ -15856,10 +15971,10 @@
       </c>
     </row>
     <row r="20" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
-      <c r="B20" s="183"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="183"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="139"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="139"/>
       <c r="I20" s="99" t="s">
         <v>1</v>
       </c>
@@ -15868,11 +15983,11 @@
       </c>
     </row>
     <row r="21" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
-      <c r="B21" s="183"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="183"/>
-      <c r="I21" s="116" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="139"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="139"/>
+      <c r="I21" s="115" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="13" t="s">
@@ -15880,354 +15995,354 @@
       </c>
     </row>
     <row r="22" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="183"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="183"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="139"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="139"/>
     </row>
     <row r="23" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
-      <c r="B23" s="183"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="183"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="139"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="139"/>
     </row>
     <row r="24" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="183"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="183"/>
-      <c r="BL24" s="232" t="s">
+      <c r="B24" s="139"/>
+      <c r="C24" s="253"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="139"/>
+      <c r="BL24" s="179" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="183"/>
-      <c r="BL25" s="233"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="139"/>
+      <c r="BL25" s="180"/>
     </row>
     <row r="26" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="183"/>
-      <c r="BL26" s="233"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="139"/>
+      <c r="BL26" s="180"/>
     </row>
     <row r="27" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="200"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="183"/>
-      <c r="BL27" s="234"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="139"/>
+      <c r="BL27" s="181"/>
     </row>
     <row r="28" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="183"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="139"/>
     </row>
     <row r="29" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
-      <c r="B29" s="217"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="183"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="145"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="139"/>
     </row>
     <row r="30" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="186"/>
-      <c r="B30" s="217"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="183"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="145"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="139"/>
     </row>
     <row r="31" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="189"/>
-      <c r="B31" s="217"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="183"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="145"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="139"/>
     </row>
     <row r="32" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="145"/>
       <c r="D32" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="183"/>
+      <c r="E32" s="139"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="217"/>
+      <c r="B33" s="145"/>
       <c r="D33" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="183"/>
+      <c r="E33" s="139"/>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="217"/>
+      <c r="B34" s="145"/>
       <c r="D34" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="183"/>
+      <c r="E34" s="139"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="83"/>
-      <c r="B35" s="217"/>
+      <c r="B35" s="145"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="183"/>
+      <c r="E35" s="139"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
-      <c r="B36" s="217"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="145"/>
       <c r="D36" s="80"/>
-      <c r="E36" s="183"/>
+      <c r="E36" s="139"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
-      <c r="B37" s="217"/>
+      <c r="A37" s="142"/>
+      <c r="B37" s="145"/>
       <c r="D37" s="79"/>
-      <c r="E37" s="183"/>
+      <c r="E37" s="139"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="186"/>
-      <c r="B38" s="217"/>
+      <c r="A38" s="142"/>
+      <c r="B38" s="145"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="183"/>
+      <c r="E38" s="139"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="196"/>
-      <c r="B39" s="218"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="146"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="183"/>
+      <c r="E39" s="139"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="230"/>
-      <c r="B40" s="213" t="s">
+      <c r="A40" s="147"/>
+      <c r="B40" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="183"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="139"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="211"/>
-      <c r="B41" s="214"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="183"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="132"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="139"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="211"/>
-      <c r="B42" s="214"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="183"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="132"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="139"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="231"/>
-      <c r="B43" s="214"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="183"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="132"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="139"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="214"/>
+      <c r="B44" s="132"/>
       <c r="D44" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="183"/>
+      <c r="E44" s="139"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="214"/>
+      <c r="B45" s="132"/>
       <c r="D45" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="183"/>
+      <c r="E45" s="139"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="214"/>
+      <c r="B46" s="132"/>
       <c r="D46" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="183"/>
+      <c r="E46" s="139"/>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
-      <c r="B47" s="214"/>
+      <c r="B47" s="132"/>
       <c r="D47" s="79"/>
-      <c r="E47" s="183"/>
+      <c r="E47" s="139"/>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="203" t="s">
+      <c r="A48" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="B48" s="214"/>
-      <c r="D48" s="193" t="s">
+      <c r="B48" s="132"/>
+      <c r="D48" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="183"/>
+      <c r="E48" s="139"/>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="203"/>
-      <c r="B49" s="214"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="183"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="132"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="139"/>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="203"/>
-      <c r="B50" s="214"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="183"/>
+      <c r="A50" s="159"/>
+      <c r="B50" s="132"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="139"/>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="204"/>
-      <c r="B51" s="215"/>
-      <c r="D51" s="192"/>
-      <c r="E51" s="184"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="133"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="140"/>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="219" t="s">
+      <c r="A52" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="206" t="s">
+      <c r="B52" s="162" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="191" t="s">
+      <c r="D52" s="136" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="176" t="s">
+      <c r="E52" s="183" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="220"/>
-      <c r="B53" s="207"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="177"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="163"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="184"/>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="220"/>
-      <c r="B54" s="207"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="177"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="163"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="184"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="220"/>
-      <c r="B55" s="207"/>
-      <c r="D55" s="192"/>
-      <c r="E55" s="177"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="163"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="184"/>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="221" t="s">
+      <c r="A56" s="170" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="207"/>
-      <c r="D56" s="193" t="s">
+      <c r="B56" s="163"/>
+      <c r="D56" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="177"/>
+      <c r="E56" s="184"/>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="222"/>
-      <c r="B57" s="207"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="177"/>
+      <c r="A57" s="171"/>
+      <c r="B57" s="163"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="184"/>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="222"/>
-      <c r="B58" s="207"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="177"/>
+      <c r="A58" s="171"/>
+      <c r="B58" s="163"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="184"/>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
-      <c r="B59" s="207"/>
-      <c r="D59" s="192"/>
-      <c r="E59" s="177"/>
+      <c r="A59" s="173"/>
+      <c r="B59" s="163"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="184"/>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="221" t="s">
+      <c r="A60" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="207"/>
-      <c r="D60" s="193" t="s">
+      <c r="B60" s="163"/>
+      <c r="D60" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="177"/>
+      <c r="E60" s="184"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="222"/>
-      <c r="B61" s="207"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="177"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="163"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="184"/>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="222"/>
-      <c r="B62" s="207"/>
-      <c r="D62" s="191"/>
-      <c r="E62" s="177"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="163"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="184"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="223"/>
-      <c r="B63" s="208"/>
-      <c r="D63" s="200"/>
-      <c r="E63" s="178"/>
+      <c r="A63" s="172"/>
+      <c r="B63" s="164"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="185"/>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="209" t="s">
+      <c r="A64" s="165" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="213" t="s">
+      <c r="B64" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="201" t="s">
+      <c r="D64" s="157" t="s">
         <v>194</v>
       </c>
       <c r="E64" s="90"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="203"/>
-      <c r="B65" s="214"/>
-      <c r="D65" s="202"/>
+      <c r="A65" s="159"/>
+      <c r="B65" s="132"/>
+      <c r="D65" s="158"/>
       <c r="E65" s="91"/>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="203"/>
-      <c r="B66" s="214"/>
-      <c r="D66" s="202"/>
+      <c r="A66" s="159"/>
+      <c r="B66" s="132"/>
+      <c r="D66" s="158"/>
       <c r="E66" s="91"/>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="203"/>
-      <c r="B67" s="214"/>
-      <c r="D67" s="202"/>
+      <c r="A67" s="159"/>
+      <c r="B67" s="132"/>
+      <c r="D67" s="158"/>
       <c r="E67" s="91"/>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="214"/>
+      <c r="B68" s="132"/>
       <c r="D68" s="87" t="s">
         <v>154</v>
       </c>
@@ -16237,7 +16352,7 @@
       <c r="A69" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="214"/>
+      <c r="B69" s="132"/>
       <c r="D69" s="88" t="s">
         <v>154</v>
       </c>
@@ -16247,7 +16362,7 @@
       <c r="A70" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="214"/>
+      <c r="B70" s="132"/>
       <c r="D70" s="88" t="s">
         <v>154</v>
       </c>
@@ -16255,69 +16370,69 @@
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="86"/>
-      <c r="B71" s="214"/>
+      <c r="B71" s="132"/>
       <c r="D71" s="89"/>
       <c r="E71" s="91"/>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="210"/>
-      <c r="B72" s="214"/>
-      <c r="D72" s="202" t="s">
+      <c r="A72" s="166"/>
+      <c r="B72" s="132"/>
+      <c r="D72" s="158" t="s">
         <v>214</v>
       </c>
       <c r="E72" s="91"/>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="211"/>
-      <c r="B73" s="214"/>
-      <c r="D73" s="202"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="132"/>
+      <c r="D73" s="158"/>
       <c r="E73" s="91"/>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="211"/>
-      <c r="B74" s="214"/>
-      <c r="D74" s="202"/>
+      <c r="A74" s="148"/>
+      <c r="B74" s="132"/>
+      <c r="D74" s="158"/>
       <c r="E74" s="91"/>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="212"/>
-      <c r="B75" s="215"/>
-      <c r="D75" s="205"/>
+      <c r="A75" s="167"/>
+      <c r="B75" s="133"/>
+      <c r="D75" s="161"/>
       <c r="E75" s="92"/>
     </row>
     <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="185"/>
-      <c r="B76" s="216" t="s">
+      <c r="A76" s="152"/>
+      <c r="B76" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="194" t="s">
+      <c r="D76" s="177" t="s">
         <v>215</v>
       </c>
       <c r="E76" s="90"/>
     </row>
     <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="186"/>
-      <c r="B77" s="217"/>
-      <c r="D77" s="195"/>
+      <c r="A77" s="142"/>
+      <c r="B77" s="145"/>
+      <c r="D77" s="178"/>
       <c r="E77" s="91"/>
     </row>
     <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="186"/>
-      <c r="B78" s="217"/>
-      <c r="D78" s="195"/>
+      <c r="A78" s="142"/>
+      <c r="B78" s="145"/>
+      <c r="D78" s="178"/>
       <c r="E78" s="91"/>
     </row>
     <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="186"/>
-      <c r="B79" s="217"/>
-      <c r="D79" s="195"/>
+      <c r="A79" s="142"/>
+      <c r="B79" s="145"/>
+      <c r="D79" s="178"/>
       <c r="E79" s="91"/>
     </row>
     <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="217"/>
+      <c r="B80" s="145"/>
       <c r="D80" s="81" t="s">
         <v>154</v>
       </c>
@@ -16327,7 +16442,7 @@
       <c r="A81" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="217"/>
+      <c r="B81" s="145"/>
       <c r="D81" s="82" t="s">
         <v>154</v>
       </c>
@@ -16337,7 +16452,7 @@
       <c r="A82" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="217"/>
+      <c r="B82" s="145"/>
       <c r="D82" s="82" t="s">
         <v>154</v>
       </c>
@@ -16345,60 +16460,60 @@
     </row>
     <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="82"/>
-      <c r="B83" s="217"/>
+      <c r="B83" s="145"/>
       <c r="D83" s="82"/>
       <c r="E83" s="91"/>
     </row>
     <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="188"/>
-      <c r="B84" s="217"/>
-      <c r="D84" s="188"/>
+      <c r="A84" s="141"/>
+      <c r="B84" s="145"/>
+      <c r="D84" s="141"/>
       <c r="E84" s="91"/>
     </row>
     <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="186"/>
-      <c r="B85" s="217"/>
-      <c r="D85" s="186"/>
+      <c r="A85" s="142"/>
+      <c r="B85" s="145"/>
+      <c r="D85" s="142"/>
       <c r="E85" s="91"/>
     </row>
     <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="186"/>
-      <c r="B86" s="217"/>
-      <c r="D86" s="186"/>
+      <c r="A86" s="142"/>
+      <c r="B86" s="145"/>
+      <c r="D86" s="142"/>
       <c r="E86" s="91"/>
     </row>
     <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="189"/>
-      <c r="B87" s="217"/>
-      <c r="D87" s="189"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="145"/>
+      <c r="D87" s="153"/>
       <c r="E87" s="91"/>
     </row>
     <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="188" t="s">
+      <c r="A88" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="B88" s="217"/>
-      <c r="D88" s="188" t="s">
+      <c r="B88" s="145"/>
+      <c r="D88" s="141" t="s">
         <v>193</v>
       </c>
       <c r="E88" s="91"/>
     </row>
     <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="186"/>
-      <c r="B89" s="217"/>
-      <c r="D89" s="186"/>
+      <c r="A89" s="142"/>
+      <c r="B89" s="145"/>
+      <c r="D89" s="142"/>
       <c r="E89" s="91"/>
     </row>
     <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="186"/>
-      <c r="B90" s="217"/>
-      <c r="D90" s="186"/>
+      <c r="A90" s="142"/>
+      <c r="B90" s="145"/>
+      <c r="D90" s="142"/>
       <c r="E90" s="91"/>
     </row>
     <row r="91" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="196"/>
-      <c r="B91" s="218"/>
-      <c r="D91" s="196"/>
+      <c r="A91" s="143"/>
+      <c r="B91" s="146"/>
+      <c r="D91" s="143"/>
       <c r="E91" s="92"/>
     </row>
     <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16489,6 +16604,96 @@
     <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="E3:E51"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="BV3:BV7"/>
+    <mergeCell ref="BW3:BW7"/>
+    <mergeCell ref="BX3:BX7"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E52:E63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="BY3:BY7"/>
+    <mergeCell ref="BB3:BB7"/>
+    <mergeCell ref="BC3:BC7"/>
+    <mergeCell ref="BD3:BD7"/>
+    <mergeCell ref="BE3:BE7"/>
+    <mergeCell ref="BQ3:BQ7"/>
+    <mergeCell ref="BR3:BR7"/>
+    <mergeCell ref="BS3:BS7"/>
+    <mergeCell ref="BT3:BT7"/>
+    <mergeCell ref="BU3:BU7"/>
+    <mergeCell ref="BL3:BL7"/>
+    <mergeCell ref="BM3:BM7"/>
+    <mergeCell ref="BN3:BN7"/>
+    <mergeCell ref="BO3:BO7"/>
+    <mergeCell ref="BP3:BP7"/>
+    <mergeCell ref="BG3:BG7"/>
+    <mergeCell ref="BH3:BH7"/>
+    <mergeCell ref="BI3:BI7"/>
+    <mergeCell ref="BJ3:BJ7"/>
+    <mergeCell ref="BK3:BK7"/>
+    <mergeCell ref="DI10:EF10"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="BR8:CW8"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="DQ3:DQ7"/>
+    <mergeCell ref="DG3:DG7"/>
+    <mergeCell ref="CS3:CS7"/>
+    <mergeCell ref="CT3:CT7"/>
+    <mergeCell ref="CU3:CU7"/>
+    <mergeCell ref="CV3:CV7"/>
+    <mergeCell ref="CW3:CW7"/>
+    <mergeCell ref="CX3:CX7"/>
+    <mergeCell ref="CY3:CY7"/>
+    <mergeCell ref="CZ3:CZ7"/>
+    <mergeCell ref="DA3:DA7"/>
+    <mergeCell ref="DB3:DB7"/>
+    <mergeCell ref="DC3:DC7"/>
+    <mergeCell ref="DF3:DF7"/>
+    <mergeCell ref="DD3:DD7"/>
+    <mergeCell ref="DE3:DE7"/>
+    <mergeCell ref="CM3:CM7"/>
+    <mergeCell ref="CN3:CN7"/>
+    <mergeCell ref="CO3:CO7"/>
+    <mergeCell ref="CP3:CP7"/>
+    <mergeCell ref="CQ3:CQ7"/>
+    <mergeCell ref="DM3:DM7"/>
+    <mergeCell ref="DN3:DN7"/>
+    <mergeCell ref="DO3:DO7"/>
+    <mergeCell ref="DP3:DP7"/>
+    <mergeCell ref="DH3:DH7"/>
+    <mergeCell ref="DI3:DI7"/>
     <mergeCell ref="CF3:CF7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B27"/>
@@ -16513,96 +16718,6 @@
     <mergeCell ref="CJ3:CJ7"/>
     <mergeCell ref="CK3:CK7"/>
     <mergeCell ref="CL3:CL7"/>
-    <mergeCell ref="CM3:CM7"/>
-    <mergeCell ref="CN3:CN7"/>
-    <mergeCell ref="CO3:CO7"/>
-    <mergeCell ref="CP3:CP7"/>
-    <mergeCell ref="CQ3:CQ7"/>
-    <mergeCell ref="DM3:DM7"/>
-    <mergeCell ref="DN3:DN7"/>
-    <mergeCell ref="DO3:DO7"/>
-    <mergeCell ref="DP3:DP7"/>
-    <mergeCell ref="DH3:DH7"/>
-    <mergeCell ref="DI3:DI7"/>
-    <mergeCell ref="DQ3:DQ7"/>
-    <mergeCell ref="DG3:DG7"/>
-    <mergeCell ref="CS3:CS7"/>
-    <mergeCell ref="CT3:CT7"/>
-    <mergeCell ref="CU3:CU7"/>
-    <mergeCell ref="CV3:CV7"/>
-    <mergeCell ref="CW3:CW7"/>
-    <mergeCell ref="CX3:CX7"/>
-    <mergeCell ref="CY3:CY7"/>
-    <mergeCell ref="CZ3:CZ7"/>
-    <mergeCell ref="DA3:DA7"/>
-    <mergeCell ref="DB3:DB7"/>
-    <mergeCell ref="DC3:DC7"/>
-    <mergeCell ref="DF3:DF7"/>
-    <mergeCell ref="DD3:DD7"/>
-    <mergeCell ref="DE3:DE7"/>
-    <mergeCell ref="DI10:EF10"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="BR8:CW8"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="BY3:BY7"/>
-    <mergeCell ref="BB3:BB7"/>
-    <mergeCell ref="BC3:BC7"/>
-    <mergeCell ref="BD3:BD7"/>
-    <mergeCell ref="BE3:BE7"/>
-    <mergeCell ref="BQ3:BQ7"/>
-    <mergeCell ref="BR3:BR7"/>
-    <mergeCell ref="BS3:BS7"/>
-    <mergeCell ref="BT3:BT7"/>
-    <mergeCell ref="BU3:BU7"/>
-    <mergeCell ref="BL3:BL7"/>
-    <mergeCell ref="BM3:BM7"/>
-    <mergeCell ref="BN3:BN7"/>
-    <mergeCell ref="BO3:BO7"/>
-    <mergeCell ref="BP3:BP7"/>
-    <mergeCell ref="BG3:BG7"/>
-    <mergeCell ref="BH3:BH7"/>
-    <mergeCell ref="BI3:BI7"/>
-    <mergeCell ref="BJ3:BJ7"/>
-    <mergeCell ref="BK3:BK7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B76:B91"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="E3:E51"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="BV3:BV7"/>
-    <mergeCell ref="BW3:BW7"/>
-    <mergeCell ref="BX3:BX7"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E52:E63"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="D64:D67"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" fitToWidth="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>
